--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_FE44E7705D9EFAC7BAED99B5CA2528E350C2E972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{699AB406-E1AD-46E4-83FB-631AED4A6102}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_FE44E7705D9EFAC7BAED99B5CA2528E350C2E972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C49AA8-B1C4-4EFF-929E-C39E51F9CDE4}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="147">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -507,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -515,6 +515,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -737,7 +738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -893,9 +894,15 @@
       <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -927,8 +934,12 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="2"/>
+      <c r="AO2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="5"/>
     </row>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_FE44E7705D9EFAC7BAED99B5CA2528E350C2E972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA3C0838-3E66-4EB4-AAC7-81C7B78ABF27}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E72CA46D50F639EE50EC99B5CA2528E350C3D350" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{260F3160-03A7-4E9C-AC16-57B2A2348DE5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="178">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -55,12 +55,21 @@
     <t>Dänemark-Finnland</t>
   </si>
   <si>
+    <t>Belgien-Russland</t>
+  </si>
+  <si>
     <t>Finnland-Russland</t>
   </si>
   <si>
+    <t>Dänemark-Belgien</t>
+  </si>
+  <si>
     <t>Russland-Dänemark</t>
   </si>
   <si>
+    <t>Finnland-Belgien</t>
+  </si>
+  <si>
     <t>Österreich-Nordmazedonien</t>
   </si>
   <si>
@@ -118,6 +127,21 @@
     <t>Ungarn-Portugal</t>
   </si>
   <si>
+    <t>Frankreich-Deutschland</t>
+  </si>
+  <si>
+    <t>Ungarn-Frankreich</t>
+  </si>
+  <si>
+    <t>Portugal-Deutschland</t>
+  </si>
+  <si>
+    <t>Portugal-Frankreich</t>
+  </si>
+  <si>
+    <t>Deutschland-Ungarn</t>
+  </si>
+  <si>
     <t>Wer wird Europameister?</t>
   </si>
   <si>
@@ -169,6 +193,9 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>Frankreich</t>
+  </si>
+  <si>
     <t>Achtelfinale</t>
   </si>
   <si>
@@ -223,6 +250,9 @@
     <t>1.0</t>
   </si>
   <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
     <t>Aus nach Vorrunde</t>
   </si>
   <si>
@@ -274,6 +304,9 @@
     <t>Sibylle Lambrigger</t>
   </si>
   <si>
+    <t>Belgien</t>
+  </si>
+  <si>
     <t>judith.straessle@bluewin.ch</t>
   </si>
   <si>
@@ -320,6 +353,9 @@
   </si>
   <si>
     <t>0:5</t>
+  </si>
+  <si>
+    <t>Portugal</t>
   </si>
   <si>
     <t>rarpagaus@gmx.ch</t>
@@ -395,6 +431,9 @@
     <t>Denise Weisflog</t>
   </si>
   <si>
+    <t>England</t>
+  </si>
+  <si>
     <t>zeder@gmx.ch</t>
   </si>
   <si>
@@ -419,49 +458,103 @@
     <t>Lisbeth Wolanin</t>
   </si>
   <si>
+    <t>Spanien</t>
+  </si>
+  <si>
+    <t>thomas.bugs@bugssteuern.ch</t>
+  </si>
+  <si>
+    <t>Bugs Wiliam</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>Bugs Thomas</t>
+  </si>
+  <si>
+    <t>Bugsy</t>
+  </si>
+  <si>
+    <t>lisa.bollinger@fhnw.ch</t>
+  </si>
+  <si>
+    <t>Lisa Bollinger</t>
+  </si>
+  <si>
+    <t>fabienne_loetscher@gmx.ch</t>
+  </si>
+  <si>
+    <t>Fabienne Lötscher</t>
+  </si>
+  <si>
+    <t>Hermine</t>
+  </si>
+  <si>
+    <t>tt@awp.ch</t>
+  </si>
+  <si>
+    <t>Tina Tuor</t>
+  </si>
+  <si>
+    <t>Tuorbinator Furiosa</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>Schottland</t>
+  </si>
+  <si>
+    <t>m.fehrenbach@bluewin.ch</t>
+  </si>
+  <si>
+    <t>marg</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>karin_weinmann@yahoo.de</t>
+  </si>
+  <si>
+    <t>Karin Weinmann</t>
+  </si>
+  <si>
+    <t>Kassandra</t>
+  </si>
+  <si>
+    <t>cornelia.jost@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cornelia Jost</t>
+  </si>
+  <si>
+    <t>Jostella Emmentalicious</t>
+  </si>
+  <si>
+    <t>tv@awp.ch</t>
+  </si>
+  <si>
+    <t>Tabea von Ow</t>
+  </si>
+  <si>
+    <t>In Your Face</t>
+  </si>
+  <si>
     <t>Resultate</t>
-  </si>
-  <si>
-    <t>Portugal-:de: Deutschland</t>
-  </si>
-  <si>
-    <t>:de: Deutschland-Ungarn</t>
-  </si>
-  <si>
-    <t>:de: Deutschland</t>
-  </si>
-  <si>
-    <t>:fr: Frankreich-:de: Deutschland</t>
-  </si>
-  <si>
-    <t>Ungarn-:fr: Frankreich</t>
-  </si>
-  <si>
-    <t>Portugal-:fr: Frankreich</t>
-  </si>
-  <si>
-    <t>:fr: Frankreich</t>
-  </si>
-  <si>
-    <t>:be: Belgien-Russland</t>
-  </si>
-  <si>
-    <t>Dänemark-:be: Belgien</t>
-  </si>
-  <si>
-    <t>Finnland-:be: Belgien</t>
-  </si>
-  <si>
-    <t>:be: Belgien</t>
-  </si>
-  <si>
-    <t>:pt: Portugal</t>
-  </si>
-  <si>
-    <t>:gb-eng: England</t>
-  </si>
-  <si>
-    <t>:es: Spanien</t>
   </si>
 </sst>
 </file>
@@ -507,15 +600,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -734,11 +825,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO22" sqref="AO22"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -783,126 +874,117 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -934,12 +1016,8 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="5"/>
     </row>
@@ -948,127 +1026,127 @@
         <v>44315.684453900467</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
@@ -1078,124 +1156,124 @@
         <v>44338.962579375002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="V4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="AC4" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -1203,124 +1281,124 @@
         <v>44340.455648518517</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="3" t="s">
+      <c r="AP5" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1328,127 +1406,127 @@
         <v>44342.911392962968</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -1456,127 +1534,127 @@
         <v>44343.428704918981</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1584,130 +1662,130 @@
         <v>44343.651783159723</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="V8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AQ8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -1715,130 +1793,130 @@
         <v>44344.580743287035</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="Q9" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -1846,124 +1924,124 @@
         <v>44345.692452442134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="V10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -1971,127 +2049,127 @@
         <v>44346.828506678241</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="AI11" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -2099,124 +2177,124 @@
         <v>44347.610221863426</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AN12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -2224,127 +2302,127 @@
         <v>44347.660611446758</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="V13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="AA13" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -2352,127 +2430,127 @@
         <v>44348.492419259259</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -2480,127 +2558,127 @@
         <v>44349.570228993056</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP15" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP15" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -2608,130 +2686,130 @@
         <v>44349.879789999999</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL16" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -2739,127 +2817,127 @@
         <v>44351.428450497682</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -2867,130 +2945,130 @@
         <v>44351.521401122685</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AJ18" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -2998,124 +3076,124 @@
         <v>44351.537212974537</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="AP19" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -3123,127 +3201,127 @@
         <v>44351.583451909726</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="AH20" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -3251,127 +3329,127 @@
         <v>44351.59185138889</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3379,124 +3457,124 @@
         <v>44351.650900092594</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -3504,127 +3582,127 @@
         <v>44351.750726666665</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG23" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AI23" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AJ23" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -3632,127 +3710,127 @@
         <v>44352.407088078704</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG24" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AK24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN24" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="AO24" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -3760,124 +3838,1273 @@
         <v>44352.420063831014</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="AE25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB25" s="3" t="s">
+      <c r="AH25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44353.7207208912</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AC25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK25" s="3" t="s">
+      <c r="AH26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AL25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO25" s="3" t="s">
+      <c r="AL26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44353.726277939815</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AP25" s="3" t="s">
-        <v>49</v>
+      <c r="C27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44354.614342407411</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44354.645761412037</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44354.710225416668</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44355.483471168976</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP31" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44355.617516967592</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP32" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44355.651320682868</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP33" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44355.693081180551</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP34" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E72CA46D50F639EE50EC99B5CA2528E350C3D350" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{260F3160-03A7-4E9C-AC16-57B2A2348DE5}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_DF44456A7C3EFEC8A6EC99B5CA2528E350C30EA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA2D403F-E369-4560-935D-9393B2191221}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="183">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -193,9 +193,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>Frankreich</t>
-  </si>
-  <si>
     <t>Achtelfinale</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Deutschland</t>
-  </si>
-  <si>
     <t>Aus nach Vorrunde</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
     <t>Sibylle Lambrigger</t>
   </si>
   <si>
-    <t>Belgien</t>
-  </si>
-  <si>
     <t>judith.straessle@bluewin.ch</t>
   </si>
   <si>
@@ -353,9 +344,6 @@
   </si>
   <si>
     <t>0:5</t>
-  </si>
-  <si>
-    <t>Portugal</t>
   </si>
   <si>
     <t>rarpagaus@gmx.ch</t>
@@ -431,9 +419,6 @@
     <t>Denise Weisflog</t>
   </si>
   <si>
-    <t>England</t>
-  </si>
-  <si>
     <t>zeder@gmx.ch</t>
   </si>
   <si>
@@ -458,9 +443,6 @@
     <t>Lisbeth Wolanin</t>
   </si>
   <si>
-    <t>Spanien</t>
-  </si>
-  <si>
     <t>thomas.bugs@bugssteuern.ch</t>
   </si>
   <si>
@@ -512,9 +494,6 @@
     <t>5:6</t>
   </si>
   <si>
-    <t>Schottland</t>
-  </si>
-  <si>
     <t>m.fehrenbach@bluewin.ch</t>
   </si>
   <si>
@@ -524,9 +503,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>Schweiz</t>
-  </si>
-  <si>
     <t>karin_weinmann@yahoo.de</t>
   </si>
   <si>
@@ -554,7 +530,46 @@
     <t>In Your Face</t>
   </si>
   <si>
+    <t>sara.duerr@fhnw.ch</t>
+  </si>
+  <si>
+    <t>Sara Dürr</t>
+  </si>
+  <si>
+    <t>an@awp.ch</t>
+  </si>
+  <si>
+    <t>Andreas Nef</t>
+  </si>
+  <si>
+    <t>Zamoramoah</t>
+  </si>
+  <si>
     <t>Resultate</t>
+  </si>
+  <si>
+    <t>:fr: Frankreich</t>
+  </si>
+  <si>
+    <t>:de: Deutschland</t>
+  </si>
+  <si>
+    <t>:be: Belgien</t>
+  </si>
+  <si>
+    <t>:gb-eng: England</t>
+  </si>
+  <si>
+    <t>:pt: Portugal</t>
+  </si>
+  <si>
+    <t>:es: Spanien</t>
+  </si>
+  <si>
+    <t>:ch: Schweiz</t>
+  </si>
+  <si>
+    <t>:gb-sct: Schottland</t>
   </si>
 </sst>
 </file>
@@ -825,11 +840,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR34"/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -975,7 +990,7 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1143,10 +1158,10 @@
         <v>49</v>
       </c>
       <c r="AO3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
@@ -1156,11 +1171,11 @@
         <v>44338.962579375002</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>55</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>51</v>
@@ -1189,16 +1204,16 @@
         <v>48</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>55</v>
@@ -1234,13 +1249,13 @@
         <v>53</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>50</v>
@@ -1255,7 +1270,7 @@
         <v>48</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>53</v>
@@ -1267,13 +1282,13 @@
         <v>49</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -1281,124 +1296,124 @@
         <v>44340.455648518517</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="AN5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AO5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1406,13 +1421,13 @@
         <v>44342.911392962968</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>47</v>
@@ -1466,10 +1481,10 @@
         <v>48</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>47</v>
@@ -1478,7 +1493,7 @@
         <v>55</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>55</v>
@@ -1493,7 +1508,7 @@
         <v>55</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>51</v>
@@ -1523,10 +1538,10 @@
         <v>55</v>
       </c>
       <c r="AO6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP6" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -1534,14 +1549,14 @@
         <v>44343.428704918981</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>56</v>
       </c>
@@ -1561,7 +1576,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>50</v>
@@ -1594,7 +1609,7 @@
         <v>48</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>51</v>
@@ -1603,13 +1618,13 @@
         <v>54</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>47</v>
@@ -1618,13 +1633,13 @@
         <v>54</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>48</v>
@@ -1651,10 +1666,10 @@
         <v>52</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1662,13 +1677,13 @@
         <v>44343.651783159723</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>48</v>
@@ -1701,11 +1716,11 @@
         <v>56</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>49</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>50</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>53</v>
@@ -1737,13 +1752,13 @@
         <v>50</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>51</v>
@@ -1752,7 +1767,7 @@
         <v>50</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>47</v>
@@ -1764,7 +1779,7 @@
         <v>56</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>48</v>
@@ -1776,16 +1791,16 @@
         <v>56</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AO8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AP8" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="AQ8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -1793,130 +1808,130 @@
         <v>44344.580743287035</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -1924,16 +1939,16 @@
         <v>44345.692452442134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>50</v>
@@ -1957,16 +1972,16 @@
         <v>48</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="Q10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>55</v>
@@ -2002,13 +2017,13 @@
         <v>53</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>50</v>
@@ -2017,7 +2032,7 @@
         <v>48</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI10" s="3" t="s">
         <v>48</v>
@@ -2038,10 +2053,10 @@
         <v>49</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -2049,22 +2064,22 @@
         <v>44346.828506678241</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>55</v>
@@ -2076,7 +2091,7 @@
         <v>52</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>51</v>
@@ -2112,7 +2127,7 @@
         <v>51</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>48</v>
@@ -2121,13 +2136,13 @@
         <v>51</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>55</v>
@@ -2166,10 +2181,10 @@
         <v>50</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -2177,10 +2192,10 @@
         <v>44347.610221863426</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>56</v>
@@ -2291,10 +2306,10 @@
         <v>50</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -2302,16 +2317,16 @@
         <v>44347.660611446758</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>47</v>
@@ -2320,10 +2335,10 @@
         <v>52</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>55</v>
@@ -2353,7 +2368,7 @@
         <v>55</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>50</v>
@@ -2362,7 +2377,7 @@
         <v>53</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>49</v>
@@ -2377,7 +2392,7 @@
         <v>52</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB13" s="3" t="s">
         <v>54</v>
@@ -2419,10 +2434,10 @@
         <v>52</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -2430,13 +2445,13 @@
         <v>44348.492419259259</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
@@ -2454,7 +2469,7 @@
         <v>51</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>55</v>
@@ -2511,13 +2526,13 @@
         <v>47</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>55</v>
@@ -2529,7 +2544,7 @@
         <v>54</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ14" s="3" t="s">
         <v>50</v>
@@ -2538,7 +2553,7 @@
         <v>53</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM14" s="3" t="s">
         <v>47</v>
@@ -2547,10 +2562,10 @@
         <v>55</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -2558,28 +2573,28 @@
         <v>44349.570228993056</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>55</v>
@@ -2591,7 +2606,7 @@
         <v>50</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>48</v>
@@ -2600,7 +2615,7 @@
         <v>51</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -2615,7 +2630,7 @@
         <v>50</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>49</v>
@@ -2633,7 +2648,7 @@
         <v>50</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>53</v>
@@ -2642,28 +2657,28 @@
         <v>55</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AH15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AI15" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AJ15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AL15" s="3" t="s">
         <v>49</v>
@@ -2675,10 +2690,10 @@
         <v>49</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -2686,13 +2701,13 @@
         <v>44349.879789999999</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>56</v>
@@ -2707,13 +2722,13 @@
         <v>51</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>49</v>
@@ -2731,13 +2746,13 @@
         <v>48</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>50</v>
@@ -2749,7 +2764,7 @@
         <v>51</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>47</v>
@@ -2761,13 +2776,13 @@
         <v>49</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD16" s="3" t="s">
         <v>50</v>
@@ -2776,7 +2791,7 @@
         <v>56</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>56</v>
@@ -2797,19 +2812,19 @@
         <v>50</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -2817,13 +2832,13 @@
         <v>44351.428450497682</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>51</v>
@@ -2841,7 +2856,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>50</v>
@@ -2853,13 +2868,13 @@
         <v>56</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>55</v>
@@ -2868,13 +2883,13 @@
         <v>50</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>56</v>
@@ -2916,28 +2931,28 @@
         <v>51</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -2945,130 +2960,130 @@
         <v>44351.521401122685</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="AH18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ18" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ18" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -3076,10 +3091,10 @@
         <v>44351.537212974537</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>47</v>
@@ -3088,7 +3103,7 @@
         <v>56</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>51</v>
@@ -3097,13 +3112,13 @@
         <v>51</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>47</v>
@@ -3112,7 +3127,7 @@
         <v>47</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>47</v>
@@ -3121,19 +3136,19 @@
         <v>51</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>51</v>
@@ -3142,13 +3157,13 @@
         <v>51</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB19" s="3" t="s">
         <v>47</v>
@@ -3157,43 +3172,43 @@
         <v>51</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="AP19" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -3201,13 +3216,13 @@
         <v>44351.583451909726</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>47</v>
@@ -3216,7 +3231,7 @@
         <v>47</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>54</v>
@@ -3237,7 +3252,7 @@
         <v>51</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>51</v>
@@ -3246,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>55</v>
@@ -3291,7 +3306,7 @@
         <v>50</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>53</v>
@@ -3309,7 +3324,7 @@
         <v>56</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM20" s="3" t="s">
         <v>51</v>
@@ -3318,10 +3333,10 @@
         <v>49</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -3329,13 +3344,13 @@
         <v>44351.59185138889</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>48</v>
@@ -3446,10 +3461,10 @@
         <v>55</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3457,10 +3472,10 @@
         <v>44351.650900092594</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>56</v>
@@ -3469,25 +3484,25 @@
         <v>47</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>47</v>
@@ -3496,7 +3511,7 @@
         <v>47</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>55</v>
@@ -3505,7 +3520,7 @@
         <v>55</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>50</v>
@@ -3520,7 +3535,7 @@
         <v>49</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>56</v>
@@ -3532,31 +3547,31 @@
         <v>47</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK22" s="3" t="s">
         <v>47</v>
@@ -3571,10 +3586,10 @@
         <v>50</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -3582,13 +3597,13 @@
         <v>44351.750726666665</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>47</v>
@@ -3606,7 +3621,7 @@
         <v>49</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>55</v>
@@ -3621,7 +3636,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>47</v>
@@ -3630,10 +3645,10 @@
         <v>47</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>50</v>
@@ -3699,10 +3714,10 @@
         <v>55</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -3710,13 +3725,13 @@
         <v>44352.407088078704</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>54</v>
@@ -3737,7 +3752,7 @@
         <v>52</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>52</v>
@@ -3746,7 +3761,7 @@
         <v>56</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>51</v>
@@ -3764,7 +3779,7 @@
         <v>54</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>51</v>
@@ -3785,7 +3800,7 @@
         <v>51</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>48</v>
@@ -3806,19 +3821,19 @@
         <v>48</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI24" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AJ24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL24" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="AK24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL24" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>48</v>
@@ -3827,10 +3842,10 @@
         <v>52</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -3838,10 +3853,10 @@
         <v>44352.420063831014</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>56</v>
@@ -3859,7 +3874,7 @@
         <v>55</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>54</v>
@@ -3871,10 +3886,10 @@
         <v>47</v>
       </c>
       <c r="N25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>48</v>
@@ -3889,7 +3904,7 @@
         <v>50</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>53</v>
@@ -3904,7 +3919,7 @@
         <v>56</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z25" s="3" t="s">
         <v>54</v>
@@ -3913,7 +3928,7 @@
         <v>54</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC25" s="3" t="s">
         <v>50</v>
@@ -3940,7 +3955,7 @@
         <v>51</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL25" s="3" t="s">
         <v>51</v>
@@ -3952,10 +3967,10 @@
         <v>55</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
@@ -3963,13 +3978,13 @@
         <v>44353.7207208912</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>48</v>
@@ -3978,55 +3993,55 @@
         <v>51</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>56</v>
@@ -4065,7 +4080,7 @@
         <v>48</v>
       </c>
       <c r="AJ26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK26" s="3" t="s">
         <v>53</v>
@@ -4080,10 +4095,10 @@
         <v>52</v>
       </c>
       <c r="AO26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP26" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP26" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -4091,13 +4106,13 @@
         <v>44353.726277939815</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>48</v>
@@ -4109,13 +4124,13 @@
         <v>51</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>50</v>
@@ -4172,7 +4187,7 @@
         <v>56</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD27" s="3" t="s">
         <v>55</v>
@@ -4202,16 +4217,16 @@
         <v>51</v>
       </c>
       <c r="AM27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AO27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP27" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP27" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -4219,10 +4234,10 @@
         <v>44354.614342407411</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>56</v>
@@ -4243,7 +4258,7 @@
         <v>55</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>55</v>
@@ -4261,13 +4276,13 @@
         <v>47</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>50</v>
@@ -4276,10 +4291,10 @@
         <v>48</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>51</v>
@@ -4291,7 +4306,7 @@
         <v>55</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB28" s="3" t="s">
         <v>56</v>
@@ -4300,13 +4315,13 @@
         <v>47</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE28" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG28" s="3" t="s">
         <v>56</v>
@@ -4318,13 +4333,13 @@
         <v>48</v>
       </c>
       <c r="AJ28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AL28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>51</v>
@@ -4333,10 +4348,10 @@
         <v>55</v>
       </c>
       <c r="AO28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP28" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP28" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
@@ -4344,13 +4359,13 @@
         <v>44354.645761412037</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
@@ -4371,7 +4386,7 @@
         <v>55</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>50</v>
@@ -4389,7 +4404,7 @@
         <v>53</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>50</v>
@@ -4407,7 +4422,7 @@
         <v>51</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>51</v>
@@ -4416,10 +4431,10 @@
         <v>50</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>50</v>
@@ -4440,13 +4455,13 @@
         <v>48</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI29" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK29" s="3" t="s">
         <v>48</v>
@@ -4461,10 +4476,10 @@
         <v>49</v>
       </c>
       <c r="AO29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP29" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP29" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -4472,13 +4487,13 @@
         <v>44354.710225416668</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>51</v>
@@ -4487,7 +4502,7 @@
         <v>50</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>51</v>
@@ -4496,16 +4511,16 @@
         <v>50</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>50</v>
@@ -4514,16 +4529,16 @@
         <v>50</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>51</v>
@@ -4535,25 +4550,25 @@
         <v>47</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>47</v>
@@ -4571,7 +4586,7 @@
         <v>49</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ30" s="3" t="s">
         <v>47</v>
@@ -4586,13 +4601,13 @@
         <v>49</v>
       </c>
       <c r="AN30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -4600,43 +4615,43 @@
         <v>44355.483471168976</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>56</v>
@@ -4651,76 +4666,76 @@
         <v>49</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="X31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Y31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="AE31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AH31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AI31" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AJ31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AL31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN31" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AO31" s="3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -4728,13 +4743,13 @@
         <v>44355.617516967592</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>55</v>
@@ -4749,7 +4764,7 @@
         <v>55</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>55</v>
@@ -4773,13 +4788,13 @@
         <v>56</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>50</v>
@@ -4794,7 +4809,7 @@
         <v>50</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>55</v>
@@ -4803,13 +4818,13 @@
         <v>50</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD32" s="3" t="s">
         <v>55</v>
@@ -4845,10 +4860,10 @@
         <v>52</v>
       </c>
       <c r="AO32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP32" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AP32" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
@@ -4856,13 +4871,13 @@
         <v>44355.651320682868</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>56</v>
@@ -4871,7 +4886,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>47</v>
@@ -4895,10 +4910,10 @@
         <v>53</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>54</v>
@@ -4907,7 +4922,7 @@
         <v>56</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>55</v>
@@ -4919,52 +4934,52 @@
         <v>51</v>
       </c>
       <c r="W33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH33" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH33" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="AI33" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AJ33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AM33" s="3" t="s">
         <v>50</v>
@@ -4973,10 +4988,10 @@
         <v>55</v>
       </c>
       <c r="AO33" s="3" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="AP33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
@@ -4984,25 +4999,25 @@
         <v>44355.693081180551</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>48</v>
@@ -5014,61 +5029,61 @@
         <v>51</v>
       </c>
       <c r="L34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N34" s="3" t="s">
+      <c r="X34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AA34" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE34" s="3" t="s">
         <v>49</v>
@@ -5077,34 +5092,287 @@
         <v>52</v>
       </c>
       <c r="AG34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AJ34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP34" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44356.820878449071</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AK34" s="3" t="s">
+      <c r="Q35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AL34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM34" s="3" t="s">
+      <c r="AJ35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP35" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44357.404179537036</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AN34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO34" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP34" s="3" t="s">
-        <v>77</v>
+      <c r="G36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO36" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP36" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_DF44456A7C3EFEC8A6EC99B5CA2528E350C30EA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA2D403F-E369-4560-935D-9393B2191221}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_A4E4457A188EFDF5A5EC59B7D62528E350C3C7A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35617AEB-F946-45B6-BB73-68864EC81224}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="215">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -545,28 +545,124 @@
     <t>Zamoramoah</t>
   </si>
   <si>
+    <t>milena.kaelin@gmail.com</t>
+  </si>
+  <si>
+    <t>Milena Kälin</t>
+  </si>
+  <si>
+    <t>#Goalzz</t>
+  </si>
+  <si>
+    <t>rw@awp.ch</t>
+  </si>
+  <si>
+    <t>Reto Wäckerli</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>t.hunkeler@pop.agri.ch</t>
+  </si>
+  <si>
+    <t>Tobias Hunkeler</t>
+  </si>
+  <si>
+    <t>rita.knusel@bluewin.ch</t>
+  </si>
+  <si>
+    <t>Rita Küsel</t>
+  </si>
+  <si>
+    <t>El Tigre</t>
+  </si>
+  <si>
+    <t>Diego Knübo</t>
+  </si>
+  <si>
+    <t>Säbelzahntiger</t>
+  </si>
+  <si>
+    <t>sarina.gassmann@bluewin.ch</t>
+  </si>
+  <si>
+    <t>Sarina Gassmann</t>
+  </si>
+  <si>
+    <t>loetscher.michael@gmail.com</t>
+  </si>
+  <si>
+    <t>Michael Lötscher</t>
+  </si>
+  <si>
+    <t>Timmmeeee</t>
+  </si>
+  <si>
+    <t>dani.wechsler@hotmail.com</t>
+  </si>
+  <si>
+    <t>Dani Wechsler</t>
+  </si>
+  <si>
+    <t>Ombres Albtraum</t>
+  </si>
+  <si>
+    <t>jr@awp.ch</t>
+  </si>
+  <si>
+    <t>Juerg Ruettimann</t>
+  </si>
+  <si>
+    <t>Avanti Dilettanti</t>
+  </si>
+  <si>
+    <t>jonbaud@gmail.com</t>
+  </si>
+  <si>
+    <t>Jonas Baud</t>
+  </si>
+  <si>
+    <t>Morgoth</t>
+  </si>
+  <si>
+    <t>Hopp YB</t>
+  </si>
+  <si>
+    <t>rudulm@gmail.com</t>
+  </si>
+  <si>
+    <t>Ruedi Ulmann</t>
+  </si>
+  <si>
+    <t>el balompié</t>
+  </si>
+  <si>
     <t>Resultate</t>
   </si>
   <si>
+    <t>:de: Deutschland</t>
+  </si>
+  <si>
+    <t>:ch: Schweiz</t>
+  </si>
+  <si>
+    <t>:pt: Portugal</t>
+  </si>
+  <si>
     <t>:fr: Frankreich</t>
   </si>
   <si>
-    <t>:de: Deutschland</t>
-  </si>
-  <si>
     <t>:be: Belgien</t>
   </si>
   <si>
+    <t>:es: Spanien</t>
+  </si>
+  <si>
     <t>:gb-eng: England</t>
   </si>
   <si>
-    <t>:pt: Portugal</t>
-  </si>
-  <si>
-    <t>:es: Spanien</t>
-  </si>
-  <si>
-    <t>:ch: Schweiz</t>
+    <t>:it: Italien</t>
   </si>
   <si>
     <t>:gb-sct: Schottland</t>
@@ -595,12 +691,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -615,13 +717,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -840,11 +947,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR36"/>
+  <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO37" sqref="AO37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -988,53 +1095,53 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="5"/>
+    <row r="2" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1158,7 +1265,7 @@
         <v>49</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>57</v>
@@ -1278,14 +1385,14 @@
       <c r="AL4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AM4" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AN4" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AO4" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>57</v>
@@ -1410,7 +1517,7 @@
         <v>55</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>57</v>
@@ -1538,7 +1645,7 @@
         <v>55</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>57</v>
@@ -1666,7 +1773,7 @@
         <v>52</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>75</v>
@@ -1794,7 +1901,7 @@
         <v>63</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>57</v>
@@ -1925,7 +2032,7 @@
         <v>50</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>57</v>
@@ -2053,7 +2160,7 @@
         <v>49</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="AP10" s="3" t="s">
         <v>57</v>
@@ -2181,7 +2288,7 @@
         <v>50</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP11" s="3" t="s">
         <v>95</v>
@@ -2306,7 +2413,7 @@
         <v>50</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AP12" s="3" t="s">
         <v>95</v>
@@ -2434,7 +2541,7 @@
         <v>52</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="AP13" s="3" t="s">
         <v>95</v>
@@ -2562,7 +2669,7 @@
         <v>55</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>95</v>
@@ -2690,7 +2797,7 @@
         <v>49</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="AP15" s="3" t="s">
         <v>57</v>
@@ -2818,7 +2925,7 @@
         <v>55</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="AP16" s="3" t="s">
         <v>57</v>
@@ -2949,7 +3056,7 @@
         <v>49</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP17" s="3" t="s">
         <v>95</v>
@@ -3077,7 +3184,7 @@
         <v>49</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="AP18" s="3" t="s">
         <v>57</v>
@@ -3205,7 +3312,7 @@
         <v>63</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="AP19" s="3" t="s">
         <v>123</v>
@@ -3333,7 +3440,7 @@
         <v>49</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AP20" s="3" t="s">
         <v>57</v>
@@ -3461,7 +3568,7 @@
         <v>55</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP21" s="3" t="s">
         <v>95</v>
@@ -3586,7 +3693,7 @@
         <v>50</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AP22" s="3" t="s">
         <v>57</v>
@@ -3714,7 +3821,7 @@
         <v>55</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP23" s="3" t="s">
         <v>95</v>
@@ -3842,7 +3949,7 @@
         <v>52</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="AP24" s="3" t="s">
         <v>75</v>
@@ -3967,7 +4074,7 @@
         <v>55</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AP25" s="3" t="s">
         <v>57</v>
@@ -4095,7 +4202,7 @@
         <v>52</v>
       </c>
       <c r="AO26" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP26" s="3" t="s">
         <v>57</v>
@@ -4223,7 +4330,7 @@
         <v>55</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP27" s="3" t="s">
         <v>57</v>
@@ -4348,7 +4455,7 @@
         <v>55</v>
       </c>
       <c r="AO28" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP28" s="3" t="s">
         <v>57</v>
@@ -4476,7 +4583,7 @@
         <v>49</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP29" s="3" t="s">
         <v>57</v>
@@ -4604,7 +4711,7 @@
         <v>61</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AP30" s="3" t="s">
         <v>57</v>
@@ -4732,7 +4839,7 @@
         <v>82</v>
       </c>
       <c r="AO31" s="3" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="AP31" s="3" t="s">
         <v>123</v>
@@ -4860,13 +4967,13 @@
         <v>52</v>
       </c>
       <c r="AO32" s="3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AP32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44355.651320682868</v>
       </c>
@@ -4988,13 +5095,13 @@
         <v>55</v>
       </c>
       <c r="AO33" s="3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="AP33" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44355.693081180551</v>
       </c>
@@ -5116,13 +5223,13 @@
         <v>63</v>
       </c>
       <c r="AO34" s="5" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AP34" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44356.820878449071</v>
       </c>
@@ -5241,13 +5348,13 @@
         <v>55</v>
       </c>
       <c r="AO35" s="3" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="AP35" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44357.404179537036</v>
       </c>
@@ -5369,10 +5476,1412 @@
         <v>63</v>
       </c>
       <c r="AO36" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AP36" s="3" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44357.463211458336</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP37" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>44357.517853460653</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z38" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO38" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44357.582680381944</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44357.755932395834</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO40" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP40" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>44357.763658819444</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO41" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP41" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>44357.936677835649</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>44357.937155127314</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO43" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP43" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44358.337405185186</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP44" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44358.45704332176</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP45" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44358.513099976852</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO46" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ46" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44358.541077800925</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP47" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_A4E4457A188EFDF5A5EC59B7D62528E350C3C7A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35617AEB-F946-45B6-BB73-68864EC81224}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F357B450-71D4-43BF-A9D0-FCD2759597F5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -638,34 +638,55 @@
     <t>el balompié</t>
   </si>
   <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>picasso</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>ah_f@bluewin.ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anja Huovinen </t>
+  </si>
+  <si>
+    <t>Pohjanpalo (‚Nordfeuer‘)</t>
+  </si>
+  <si>
     <t>Resultate</t>
   </si>
   <si>
+    <t>:fr: Frankreich</t>
+  </si>
+  <si>
     <t>:de: Deutschland</t>
   </si>
   <si>
+    <t>:be: Belgien</t>
+  </si>
+  <si>
+    <t>:pt: Portugal</t>
+  </si>
+  <si>
+    <t>:gb-eng: England</t>
+  </si>
+  <si>
+    <t>:es: Spanien</t>
+  </si>
+  <si>
+    <t>:gb-sct: Schottland</t>
+  </si>
+  <si>
     <t>:ch: Schweiz</t>
   </si>
   <si>
-    <t>:pt: Portugal</t>
-  </si>
-  <si>
-    <t>:fr: Frankreich</t>
-  </si>
-  <si>
-    <t>:be: Belgien</t>
-  </si>
-  <si>
-    <t>:es: Spanien</t>
-  </si>
-  <si>
-    <t>:gb-eng: England</t>
-  </si>
-  <si>
     <t>:it: Italien</t>
   </si>
   <si>
-    <t>:gb-sct: Schottland</t>
+    <t>:pl: Polen</t>
   </si>
 </sst>
 </file>
@@ -947,11 +968,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR47"/>
+  <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO37" sqref="AO37"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1118,7 @@
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1264,8 +1285,8 @@
       <c r="AN3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="3" t="s">
-        <v>209</v>
+      <c r="AO3" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>57</v>
@@ -1391,8 +1412,8 @@
       <c r="AN4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>209</v>
+      <c r="AO4" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>57</v>
@@ -1516,8 +1537,8 @@
       <c r="AN5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO5" s="3" t="s">
-        <v>209</v>
+      <c r="AO5" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>57</v>
@@ -1644,8 +1665,8 @@
       <c r="AN6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO6" s="3" t="s">
-        <v>209</v>
+      <c r="AO6" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>57</v>
@@ -1772,8 +1793,8 @@
       <c r="AN7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO7" s="3" t="s">
-        <v>206</v>
+      <c r="AO7" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>75</v>
@@ -1900,8 +1921,8 @@
       <c r="AN8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="3" t="s">
-        <v>209</v>
+      <c r="AO8" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>57</v>
@@ -2031,8 +2052,8 @@
       <c r="AN9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AO9" s="3" t="s">
-        <v>209</v>
+      <c r="AO9" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>57</v>
@@ -2159,8 +2180,8 @@
       <c r="AN10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO10" s="3" t="s">
-        <v>210</v>
+      <c r="AO10" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP10" s="3" t="s">
         <v>57</v>
@@ -2287,8 +2308,8 @@
       <c r="AN11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AO11" s="3" t="s">
-        <v>209</v>
+      <c r="AO11" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP11" s="3" t="s">
         <v>95</v>
@@ -2412,8 +2433,8 @@
       <c r="AN12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AO12" s="3" t="s">
-        <v>206</v>
+      <c r="AO12" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="AP12" s="3" t="s">
         <v>95</v>
@@ -2540,8 +2561,8 @@
       <c r="AN13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO13" s="3" t="s">
-        <v>210</v>
+      <c r="AO13" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP13" s="3" t="s">
         <v>95</v>
@@ -2668,8 +2689,8 @@
       <c r="AN14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO14" s="3" t="s">
-        <v>209</v>
+      <c r="AO14" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>95</v>
@@ -2796,8 +2817,8 @@
       <c r="AN15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO15" s="3" t="s">
-        <v>208</v>
+      <c r="AO15" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="AP15" s="3" t="s">
         <v>57</v>
@@ -2924,8 +2945,8 @@
       <c r="AN16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO16" s="3" t="s">
-        <v>210</v>
+      <c r="AO16" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP16" s="3" t="s">
         <v>57</v>
@@ -3055,8 +3076,8 @@
       <c r="AN17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO17" s="3" t="s">
-        <v>209</v>
+      <c r="AO17" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP17" s="3" t="s">
         <v>95</v>
@@ -3183,8 +3204,8 @@
       <c r="AN18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO18" s="3" t="s">
-        <v>210</v>
+      <c r="AO18" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP18" s="3" t="s">
         <v>57</v>
@@ -3311,8 +3332,8 @@
       <c r="AN19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AO19" s="3" t="s">
-        <v>210</v>
+      <c r="AO19" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP19" s="3" t="s">
         <v>123</v>
@@ -3439,8 +3460,8 @@
       <c r="AN20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO20" s="3" t="s">
-        <v>206</v>
+      <c r="AO20" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="AP20" s="3" t="s">
         <v>57</v>
@@ -3567,8 +3588,8 @@
       <c r="AN21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO21" s="3" t="s">
-        <v>209</v>
+      <c r="AO21" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP21" s="3" t="s">
         <v>95</v>
@@ -3692,8 +3713,8 @@
       <c r="AN22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AO22" s="3" t="s">
-        <v>212</v>
+      <c r="AO22" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="AP22" s="3" t="s">
         <v>57</v>
@@ -3820,8 +3841,8 @@
       <c r="AN23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO23" s="3" t="s">
-        <v>209</v>
+      <c r="AO23" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP23" s="3" t="s">
         <v>95</v>
@@ -3948,8 +3969,8 @@
       <c r="AN24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO24" s="3" t="s">
-        <v>210</v>
+      <c r="AO24" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP24" s="3" t="s">
         <v>75</v>
@@ -4073,8 +4094,8 @@
       <c r="AN25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO25" s="3" t="s">
-        <v>211</v>
+      <c r="AO25" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="AP25" s="3" t="s">
         <v>57</v>
@@ -4201,8 +4222,8 @@
       <c r="AN26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO26" s="3" t="s">
-        <v>209</v>
+      <c r="AO26" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP26" s="3" t="s">
         <v>57</v>
@@ -4329,8 +4350,8 @@
       <c r="AN27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO27" s="3" t="s">
-        <v>209</v>
+      <c r="AO27" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP27" s="3" t="s">
         <v>57</v>
@@ -4454,8 +4475,8 @@
       <c r="AN28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO28" s="3" t="s">
-        <v>209</v>
+      <c r="AO28" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP28" s="3" t="s">
         <v>57</v>
@@ -4582,8 +4603,8 @@
       <c r="AN29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO29" s="3" t="s">
-        <v>209</v>
+      <c r="AO29" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP29" s="3" t="s">
         <v>57</v>
@@ -4710,8 +4731,8 @@
       <c r="AN30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AO30" s="3" t="s">
-        <v>214</v>
+      <c r="AO30" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="AP30" s="3" t="s">
         <v>57</v>
@@ -4838,8 +4859,8 @@
       <c r="AN31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AO31" s="3" t="s">
-        <v>207</v>
+      <c r="AO31" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="AP31" s="3" t="s">
         <v>123</v>
@@ -4966,8 +4987,8 @@
       <c r="AN32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO32" s="3" t="s">
-        <v>209</v>
+      <c r="AO32" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP32" s="3" t="s">
         <v>57</v>
@@ -5094,8 +5115,8 @@
       <c r="AN33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO33" s="3" t="s">
-        <v>210</v>
+      <c r="AO33" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP33" s="3" t="s">
         <v>57</v>
@@ -5222,8 +5243,8 @@
       <c r="AN34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AO34" s="5" t="s">
-        <v>214</v>
+      <c r="AO34" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="AP34" s="3" t="s">
         <v>75</v>
@@ -5347,8 +5368,8 @@
       <c r="AN35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO35" s="3" t="s">
-        <v>208</v>
+      <c r="AO35" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="AP35" s="3" t="s">
         <v>57</v>
@@ -5475,8 +5496,8 @@
       <c r="AN36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AO36" s="3" t="s">
-        <v>212</v>
+      <c r="AO36" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="AP36" s="3" t="s">
         <v>57</v>
@@ -5603,8 +5624,8 @@
       <c r="AN37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO37" s="3" t="s">
-        <v>209</v>
+      <c r="AO37" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP37" s="3" t="s">
         <v>57</v>
@@ -5728,8 +5749,8 @@
       <c r="AN38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AO38" s="3" t="s">
-        <v>209</v>
+      <c r="AO38" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP38" s="3" t="s">
         <v>57</v>
@@ -5853,8 +5874,8 @@
       <c r="AN39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO39" s="3" t="s">
-        <v>206</v>
+      <c r="AO39" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="AP39" s="3" t="s">
         <v>57</v>
@@ -5981,8 +6002,8 @@
       <c r="AN40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO40" s="3" t="s">
-        <v>209</v>
+      <c r="AO40" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP40" s="3" t="s">
         <v>57</v>
@@ -6109,8 +6130,8 @@
       <c r="AN41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO41" s="3" t="s">
-        <v>211</v>
+      <c r="AO41" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="AP41" s="3" t="s">
         <v>95</v>
@@ -6234,8 +6255,8 @@
       <c r="AN42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO42" s="3" t="s">
-        <v>210</v>
+      <c r="AO42" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP42" s="3" t="s">
         <v>95</v>
@@ -6362,8 +6383,8 @@
       <c r="AN43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO43" s="3" t="s">
-        <v>206</v>
+      <c r="AO43" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="AP43" s="3" t="s">
         <v>75</v>
@@ -6490,8 +6511,8 @@
       <c r="AN44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AO44" s="3" t="s">
-        <v>209</v>
+      <c r="AO44" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AP44" s="3" t="s">
         <v>57</v>
@@ -6618,8 +6639,8 @@
       <c r="AN45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AO45" s="3" t="s">
-        <v>210</v>
+      <c r="AO45" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="AP45" s="3" t="s">
         <v>75</v>
@@ -6746,8 +6767,8 @@
       <c r="AN46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO46" s="3" t="s">
-        <v>213</v>
+      <c r="AO46" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="AP46" s="3" t="s">
         <v>95</v>
@@ -6877,10 +6898,266 @@
       <c r="AN47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO47" s="3" t="s">
+      <c r="AO47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP47" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44358.786595127312</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44358.796914710649</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AP47" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP49" s="3" t="s">
         <v>95</v>
       </c>
     </row>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F357B450-71D4-43BF-A9D0-FCD2759597F5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6823FA8B-6D7C-4FEA-A574-98A2434EC8A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -738,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -750,6 +750,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -972,7 +973,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1124,9 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="E2" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6823FA8B-6D7C-4FEA-A574-98A2434EC8A1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A89944A-5628-4B2E-A37E-A708E4966E0E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -973,7 +973,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,9 @@
       <c r="E2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A89944A-5628-4B2E-A37E-A708E4966E0E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A72D3B3-4164-4321-8547-BDDDFD844CDD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,9 +971,9 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1134,8 +1134,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A72D3B3-4164-4321-8547-BDDDFD844CDD}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E094C3-62DE-4DB3-92D8-402D1BD207F6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,9 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="M25" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1149,9 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="W2" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E094C3-62DE-4DB3-92D8-402D1BD207F6}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD975DA-5A57-4509-A25A-3917AF266E0A}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M25" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="M19" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD975DA-5A57-4509-A25A-3917AF266E0A}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F926E6-85C3-47A8-A573-ED29F9B2B541}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M19" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,9 @@
       <c r="Q2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="7"/>
+      <c r="R2" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F926E6-85C3-47A8-A573-ED29F9B2B541}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB31D05-0400-462A-8F2A-34A0B1C5B9F7}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="Q28" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1156,9 @@
       <c r="W2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="7"/>
+      <c r="X2" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB31D05-0400-462A-8F2A-34A0B1C5B9F7}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D597F29-0341-4389-A95A-0F91FB50C48D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="223">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>:pl: Polen</t>
+  </si>
+  <si>
+    <t>&lt;s&gt;Viertelfinale&lt;/s&gt;</t>
   </si>
 </sst>
 </file>
@@ -971,8 +974,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q28" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ34" workbookViewId="0">
+      <selection activeCell="AP54" sqref="AP54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7174,7 +7177,7 @@
         <v>215</v>
       </c>
       <c r="AP49" s="3" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D597F29-0341-4389-A95A-0F91FB50C48D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F760E2-7AF2-4C6C-B624-68673486F6DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
     <t>:pl: Polen</t>
   </si>
   <si>
-    <t>&lt;s&gt;Viertelfinale&lt;/s&gt;</t>
+    <t>&lt;p&gt;Viertelfinale&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,8 +974,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ34" workbookViewId="0">
-      <selection activeCell="AP54" sqref="AP54"/>
+    <sheetView tabSelected="1" topLeftCell="AJ28" workbookViewId="0">
+      <selection activeCell="AQ52" sqref="AQ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F760E2-7AF2-4C6C-B624-68673486F6DB}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F8A910-D0DA-4488-AD0D-8E493FC82C87}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -687,9 +687,6 @@
   </si>
   <si>
     <t>:pl: Polen</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Viertelfinale&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ28" workbookViewId="0">
-      <selection activeCell="AQ52" sqref="AQ52"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1163,9 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="AC2" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
@@ -7177,7 +7176,7 @@
         <v>215</v>
       </c>
       <c r="AP49" s="3" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F8A910-D0DA-4488-AD0D-8E493FC82C87}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8DEF44-3A12-46CE-8F6B-0D05FA974A8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1166,9 @@
       <c r="AC2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="7"/>
+      <c r="AD2" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Fussballdaten\em-toto-2021\Tipps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_89E8A461963E7EF547EC59B7D62528E350C3A2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8DEF44-3A12-46CE-8F6B-0D05FA974A8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,9 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
+      <c r="AI2" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Fussballdaten\em-toto-2021\Tipps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71BD522-E0FB-40DC-9C77-53FE6C473651}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1176,9 @@
       <c r="AI2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="7"/>
+      <c r="AJ2" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71BD522-E0FB-40DC-9C77-53FE6C473651}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5757FB-BEB1-4E85-BD52-9D7CA6F639F4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,9 @@
       <c r="L2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5757FB-BEB1-4E85-BD52-9D7CA6F639F4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECF0884-83E0-49DB-BCEE-DB86523D2665}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,9 @@
       <c r="F2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECF0884-83E0-49DB-BCEE-DB86523D2665}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458995DB-5D3A-4D0F-92AD-587A5C58BF37}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -972,7 +972,7 @@
   <dimension ref="A1:AR49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,9 @@
       <c r="G2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="11" t="s">

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458995DB-5D3A-4D0F-92AD-587A5C58BF37}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC1D48F-244A-418C-B1D8-BAA360517EF1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1155,9 @@
       <c r="R2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC1D48F-244A-418C-B1D8-BAA360517EF1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78627B30-9A07-4F2E-8077-A3E41F36FD93}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,9 @@
       <c r="M2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="11" t="s">

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78627B30-9A07-4F2E-8077-A3E41F36FD93}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E6DF3AC-7900-4E6C-8F5A-E79C3E620977}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,9 @@
       <c r="S2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="11" t="s">

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E6DF3AC-7900-4E6C-8F5A-E79C3E620977}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BAF39CD-4F79-4D38-ADEA-750998FA2A06}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="222">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,9 @@
       <c r="AD2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BAF39CD-4F79-4D38-ADEA-750998FA2A06}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62689AE-9176-4D95-AC30-5C81635B57A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="221">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Ombre der Titelverteidiger</t>
-  </si>
-  <si>
-    <t>1.0</t>
   </si>
   <si>
     <t>Aus nach Vorrunde</t>
@@ -738,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -751,6 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -971,8 +969,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1116,7 @@
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1171,7 +1169,9 @@
       <c r="X2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
@@ -1324,7 +1324,7 @@
         <v>49</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>57</v>
@@ -1451,7 +1451,7 @@
         <v>49</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>57</v>
@@ -1576,7 +1576,7 @@
         <v>55</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>57</v>
@@ -1704,7 +1704,7 @@
         <v>55</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>57</v>
@@ -1783,8 +1783,8 @@
       <c r="X7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>74</v>
+      <c r="Y7" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>55</v>
@@ -1832,10 +1832,10 @@
         <v>52</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>48</v>
@@ -1960,13 +1960,13 @@
         <v>63</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -1977,40 +1977,40 @@
         <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>60</v>
@@ -2022,7 +2022,7 @@
         <v>60</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>50</v>
@@ -2031,7 +2031,7 @@
         <v>51</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>60</v>
@@ -2046,7 +2046,7 @@
         <v>60</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>60</v>
@@ -2061,7 +2061,7 @@
         <v>49</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>63</v>
@@ -2082,7 +2082,7 @@
         <v>61</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM9" s="3" t="s">
         <v>62</v>
@@ -2091,13 +2091,13 @@
         <v>50</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -2105,10 +2105,10 @@
         <v>44345.692452442134</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>56</v>
@@ -2219,7 +2219,7 @@
         <v>49</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP10" s="3" t="s">
         <v>57</v>
@@ -2230,13 +2230,13 @@
         <v>44346.828506678241</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>48</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>55</v>
@@ -2347,10 +2347,10 @@
         <v>50</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -2358,11 +2358,11 @@
         <v>44347.610221863426</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2472,10 +2472,10 @@
         <v>50</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -2483,13 +2483,13 @@
         <v>44347.660611446758</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>61</v>
@@ -2600,10 +2600,10 @@
         <v>52</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>44348.492419259259</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
@@ -2728,10 +2728,10 @@
         <v>55</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -2739,13 +2739,13 @@
         <v>44349.570228993056</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>48</v>
@@ -2823,13 +2823,13 @@
         <v>55</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>48</v>
@@ -2844,7 +2844,7 @@
         <v>51</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL15" s="3" t="s">
         <v>49</v>
@@ -2856,7 +2856,7 @@
         <v>49</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP15" s="3" t="s">
         <v>57</v>
@@ -2867,13 +2867,13 @@
         <v>44349.879789999999</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>56</v>
@@ -2984,13 +2984,13 @@
         <v>55</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -2998,13 +2998,13 @@
         <v>44351.428450497682</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>51</v>
@@ -3115,10 +3115,10 @@
         <v>49</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -3126,13 +3126,13 @@
         <v>44351.521401122685</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>51</v>
@@ -3165,7 +3165,7 @@
         <v>60</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>48</v>
@@ -3219,7 +3219,7 @@
         <v>63</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH18" s="3" t="s">
         <v>60</v>
@@ -3231,7 +3231,7 @@
         <v>60</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AL18" s="3" t="s">
         <v>51</v>
@@ -3243,13 +3243,13 @@
         <v>49</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP18" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -3257,124 +3257,124 @@
         <v>44351.537212974537</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP19" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AP19" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -3382,13 +3382,13 @@
         <v>44351.583451909726</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>47</v>
@@ -3499,7 +3499,7 @@
         <v>49</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP20" s="3" t="s">
         <v>57</v>
@@ -3510,14 +3510,14 @@
         <v>44351.59185138889</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
@@ -3627,10 +3627,10 @@
         <v>55</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3638,10 +3638,10 @@
         <v>44351.650900092594</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>56</v>
@@ -3734,7 +3734,7 @@
         <v>56</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ22" s="3" t="s">
         <v>67</v>
@@ -3752,7 +3752,7 @@
         <v>50</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP22" s="3" t="s">
         <v>57</v>
@@ -3763,13 +3763,13 @@
         <v>44351.750726666665</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>47</v>
@@ -3811,7 +3811,7 @@
         <v>47</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>63</v>
@@ -3880,10 +3880,10 @@
         <v>55</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -3891,13 +3891,13 @@
         <v>44352.407088078704</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>54</v>
@@ -3927,7 +3927,7 @@
         <v>56</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>51</v>
@@ -3945,7 +3945,7 @@
         <v>54</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>51</v>
@@ -4008,10 +4008,10 @@
         <v>52</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -4019,10 +4019,10 @@
         <v>44352.420063831014</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>56</v>
@@ -4133,7 +4133,7 @@
         <v>55</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AP25" s="3" t="s">
         <v>57</v>
@@ -4144,13 +4144,13 @@
         <v>44353.7207208912</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>48</v>
@@ -4261,7 +4261,7 @@
         <v>52</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP26" s="3" t="s">
         <v>57</v>
@@ -4272,13 +4272,13 @@
         <v>44353.726277939815</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>48</v>
@@ -4389,7 +4389,7 @@
         <v>55</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP27" s="3" t="s">
         <v>57</v>
@@ -4400,10 +4400,10 @@
         <v>44354.614342407411</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>56</v>
@@ -4514,7 +4514,7 @@
         <v>55</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP28" s="3" t="s">
         <v>57</v>
@@ -4525,13 +4525,13 @@
         <v>44354.645761412037</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
@@ -4642,7 +4642,7 @@
         <v>49</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP29" s="3" t="s">
         <v>57</v>
@@ -4653,13 +4653,13 @@
         <v>44354.710225416668</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>51</v>
@@ -4680,13 +4680,13 @@
         <v>67</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>50</v>
@@ -4716,19 +4716,19 @@
         <v>47</v>
       </c>
       <c r="W30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X30" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="Y30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z30" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Y30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="AA30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>55</v>
@@ -4770,7 +4770,7 @@
         <v>61</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP30" s="3" t="s">
         <v>57</v>
@@ -4781,13 +4781,13 @@
         <v>44355.483471168976</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>56</v>
@@ -4844,7 +4844,7 @@
         <v>62</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>66</v>
@@ -4895,13 +4895,13 @@
         <v>67</v>
       </c>
       <c r="AN31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -4909,13 +4909,13 @@
         <v>44355.617516967592</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>55</v>
@@ -5026,7 +5026,7 @@
         <v>52</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP32" s="3" t="s">
         <v>57</v>
@@ -5037,13 +5037,13 @@
         <v>44355.651320682868</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>56</v>
@@ -5121,7 +5121,7 @@
         <v>50</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE33" s="3" t="s">
         <v>49</v>
@@ -5145,7 +5145,7 @@
         <v>61</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM33" s="3" t="s">
         <v>50</v>
@@ -5154,7 +5154,7 @@
         <v>55</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP33" s="3" t="s">
         <v>57</v>
@@ -5165,13 +5165,13 @@
         <v>44355.693081180551</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>67</v>
@@ -5213,7 +5213,7 @@
         <v>61</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>48</v>
@@ -5243,7 +5243,7 @@
         <v>49</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC34" s="3" t="s">
         <v>67</v>
@@ -5258,7 +5258,7 @@
         <v>52</v>
       </c>
       <c r="AG34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH34" s="3" t="s">
         <v>66</v>
@@ -5282,10 +5282,10 @@
         <v>63</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5293,10 +5293,10 @@
         <v>44356.820878449071</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>47</v>
@@ -5407,7 +5407,7 @@
         <v>55</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP35" s="3" t="s">
         <v>57</v>
@@ -5418,13 +5418,13 @@
         <v>44357.404179537036</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>56</v>
@@ -5535,7 +5535,7 @@
         <v>63</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP36" s="3" t="s">
         <v>57</v>
@@ -5546,13 +5546,13 @@
         <v>44357.463211458336</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>48</v>
@@ -5663,7 +5663,7 @@
         <v>52</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP37" s="3" t="s">
         <v>57</v>
@@ -5674,10 +5674,10 @@
         <v>44357.517853460653</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>47</v>
@@ -5743,7 +5743,7 @@
         <v>63</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>63</v>
@@ -5788,7 +5788,7 @@
         <v>63</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP38" s="3" t="s">
         <v>57</v>
@@ -5799,10 +5799,10 @@
         <v>44357.582680381944</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>47</v>
@@ -5913,7 +5913,7 @@
         <v>55</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP39" s="3" t="s">
         <v>57</v>
@@ -5924,13 +5924,13 @@
         <v>44357.755932395834</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>48</v>
@@ -6035,13 +6035,13 @@
         <v>48</v>
       </c>
       <c r="AM40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AN40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP40" s="3" t="s">
         <v>57</v>
@@ -6055,10 +6055,10 @@
         <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>54</v>
@@ -6169,10 +6169,10 @@
         <v>52</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AP41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
@@ -6180,10 +6180,10 @@
         <v>44357.936677835649</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>51</v>
@@ -6294,10 +6294,10 @@
         <v>55</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -6305,13 +6305,13 @@
         <v>44357.937155127314</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>48</v>
@@ -6422,10 +6422,10 @@
         <v>49</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
@@ -6433,13 +6433,13 @@
         <v>44358.337405185186</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>47</v>
@@ -6550,7 +6550,7 @@
         <v>50</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP44" s="3" t="s">
         <v>57</v>
@@ -6561,14 +6561,14 @@
         <v>44358.45704332176</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E45" s="3" t="s">
         <v>56</v>
       </c>
@@ -6678,10 +6678,10 @@
         <v>50</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -6689,13 +6689,13 @@
         <v>44358.513099976852</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>56</v>
@@ -6719,7 +6719,7 @@
         <v>52</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>63</v>
@@ -6770,7 +6770,7 @@
         <v>47</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>47</v>
@@ -6806,13 +6806,13 @@
         <v>52</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AP46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ46" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -6820,13 +6820,13 @@
         <v>44358.541077800925</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>48</v>
@@ -6937,10 +6937,10 @@
         <v>55</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
@@ -6948,13 +6948,13 @@
         <v>44358.786595127312</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>61</v>
@@ -7032,7 +7032,7 @@
         <v>55</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE48" s="3" t="s">
         <v>63</v>
@@ -7062,13 +7062,13 @@
         <v>51</v>
       </c>
       <c r="AN48" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AP48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
@@ -7076,13 +7076,13 @@
         <v>44358.796914710649</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>61</v>
@@ -7193,10 +7193,10 @@
         <v>55</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Fussballdaten\em-toto-2021\Tipps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E546B6B4-A178-4265-BC9C-A4BCDE11FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62689AE-9176-4D95-AC30-5C81635B57A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8FE12-6985-4E48-B288-74D74BB8D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="220">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>5:3</t>
-  </si>
-  <si>
-    <t>5:6</t>
   </si>
   <si>
     <t>m.fehrenbach@bluewin.ch</t>
@@ -969,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="U25" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1113,7 @@
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1172,7 +1169,9 @@
       <c r="Y2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="7"/>
+      <c r="Z2" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="11" t="s">
@@ -1324,7 +1323,7 @@
         <v>49</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>57</v>
@@ -1451,7 +1450,7 @@
         <v>49</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>57</v>
@@ -1576,7 +1575,7 @@
         <v>55</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>57</v>
@@ -1704,7 +1703,7 @@
         <v>55</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>57</v>
@@ -1832,7 +1831,7 @@
         <v>52</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>74</v>
@@ -1960,7 +1959,7 @@
         <v>63</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>57</v>
@@ -2091,7 +2090,7 @@
         <v>50</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>57</v>
@@ -2219,7 +2218,7 @@
         <v>49</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP10" s="3" t="s">
         <v>57</v>
@@ -2347,7 +2346,7 @@
         <v>50</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP11" s="3" t="s">
         <v>94</v>
@@ -2472,7 +2471,7 @@
         <v>50</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP12" s="3" t="s">
         <v>94</v>
@@ -2600,7 +2599,7 @@
         <v>52</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP13" s="3" t="s">
         <v>94</v>
@@ -2728,7 +2727,7 @@
         <v>55</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>94</v>
@@ -2856,7 +2855,7 @@
         <v>49</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP15" s="3" t="s">
         <v>57</v>
@@ -2984,7 +2983,7 @@
         <v>55</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP16" s="3" t="s">
         <v>57</v>
@@ -3115,7 +3114,7 @@
         <v>49</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP17" s="3" t="s">
         <v>94</v>
@@ -3243,7 +3242,7 @@
         <v>49</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP18" s="3" t="s">
         <v>57</v>
@@ -3371,7 +3370,7 @@
         <v>63</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP19" s="3" t="s">
         <v>122</v>
@@ -3499,7 +3498,7 @@
         <v>49</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP20" s="3" t="s">
         <v>57</v>
@@ -3627,7 +3626,7 @@
         <v>55</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP21" s="3" t="s">
         <v>94</v>
@@ -3752,7 +3751,7 @@
         <v>50</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP22" s="3" t="s">
         <v>57</v>
@@ -3880,7 +3879,7 @@
         <v>55</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP23" s="3" t="s">
         <v>94</v>
@@ -4008,7 +4007,7 @@
         <v>52</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP24" s="3" t="s">
         <v>74</v>
@@ -4133,7 +4132,7 @@
         <v>55</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP25" s="3" t="s">
         <v>57</v>
@@ -4261,7 +4260,7 @@
         <v>52</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP26" s="3" t="s">
         <v>57</v>
@@ -4389,7 +4388,7 @@
         <v>55</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP27" s="3" t="s">
         <v>57</v>
@@ -4514,7 +4513,7 @@
         <v>55</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP28" s="3" t="s">
         <v>57</v>
@@ -4642,7 +4641,7 @@
         <v>49</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP29" s="3" t="s">
         <v>57</v>
@@ -4724,8 +4723,8 @@
       <c r="Y30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z30" s="3" t="s">
-        <v>155</v>
+      <c r="Z30" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>153</v>
@@ -4770,7 +4769,7 @@
         <v>61</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AP30" s="3" t="s">
         <v>57</v>
@@ -4781,13 +4780,13 @@
         <v>44355.483471168976</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>56</v>
@@ -4844,7 +4843,7 @@
         <v>62</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>66</v>
@@ -4898,7 +4897,7 @@
         <v>81</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP31" s="3" t="s">
         <v>122</v>
@@ -4909,13 +4908,13 @@
         <v>44355.617516967592</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>55</v>
@@ -5026,7 +5025,7 @@
         <v>52</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP32" s="3" t="s">
         <v>57</v>
@@ -5037,13 +5036,13 @@
         <v>44355.651320682868</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>56</v>
@@ -5154,7 +5153,7 @@
         <v>55</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP33" s="3" t="s">
         <v>57</v>
@@ -5165,13 +5164,13 @@
         <v>44355.693081180551</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>67</v>
@@ -5282,7 +5281,7 @@
         <v>63</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AP34" s="3" t="s">
         <v>74</v>
@@ -5293,10 +5292,10 @@
         <v>44356.820878449071</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>47</v>
@@ -5407,7 +5406,7 @@
         <v>55</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP35" s="3" t="s">
         <v>57</v>
@@ -5418,13 +5417,13 @@
         <v>44357.404179537036</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>56</v>
@@ -5535,7 +5534,7 @@
         <v>63</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP36" s="3" t="s">
         <v>57</v>
@@ -5546,13 +5545,13 @@
         <v>44357.463211458336</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>48</v>
@@ -5663,7 +5662,7 @@
         <v>52</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP37" s="3" t="s">
         <v>57</v>
@@ -5674,10 +5673,10 @@
         <v>44357.517853460653</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>47</v>
@@ -5743,7 +5742,7 @@
         <v>63</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>63</v>
@@ -5788,7 +5787,7 @@
         <v>63</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP38" s="3" t="s">
         <v>57</v>
@@ -5799,10 +5798,10 @@
         <v>44357.582680381944</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>47</v>
@@ -5913,7 +5912,7 @@
         <v>55</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP39" s="3" t="s">
         <v>57</v>
@@ -5924,13 +5923,13 @@
         <v>44357.755932395834</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>48</v>
@@ -6041,7 +6040,7 @@
         <v>49</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP40" s="3" t="s">
         <v>57</v>
@@ -6055,10 +6054,10 @@
         <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>54</v>
@@ -6169,7 +6168,7 @@
         <v>52</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP41" s="3" t="s">
         <v>94</v>
@@ -6180,10 +6179,10 @@
         <v>44357.936677835649</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>51</v>
@@ -6294,7 +6293,7 @@
         <v>55</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP42" s="3" t="s">
         <v>94</v>
@@ -6305,13 +6304,13 @@
         <v>44357.937155127314</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>48</v>
@@ -6422,7 +6421,7 @@
         <v>49</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP43" s="3" t="s">
         <v>74</v>
@@ -6433,13 +6432,13 @@
         <v>44358.337405185186</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>47</v>
@@ -6550,7 +6549,7 @@
         <v>50</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP44" s="3" t="s">
         <v>57</v>
@@ -6561,14 +6560,14 @@
         <v>44358.45704332176</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E45" s="3" t="s">
         <v>56</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>50</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP45" s="3" t="s">
         <v>74</v>
@@ -6689,13 +6688,13 @@
         <v>44358.513099976852</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>56</v>
@@ -6806,13 +6805,13 @@
         <v>52</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP46" s="3" t="s">
         <v>94</v>
       </c>
       <c r="AQ46" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -6820,13 +6819,13 @@
         <v>44358.541077800925</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>48</v>
@@ -6937,7 +6936,7 @@
         <v>55</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP47" s="3" t="s">
         <v>94</v>
@@ -6951,10 +6950,10 @@
         <v>134</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>61</v>
@@ -7062,10 +7061,10 @@
         <v>51</v>
       </c>
       <c r="AN48" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AP48" s="3" t="s">
         <v>94</v>
@@ -7076,13 +7075,13 @@
         <v>44358.796914710649</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>61</v>
@@ -7193,7 +7192,7 @@
         <v>55</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP49" s="3" t="s">
         <v>94</v>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Fussballdaten\em-toto-2021\Tipps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8FE12-6985-4E48-B288-74D74BB8D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E29816-C196-4D6E-AA54-38FEBCAF0E31}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="220">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -966,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U25" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1192,8 +1192,12 @@
       <c r="AJ2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
+      <c r="AK2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
@@ -3229,8 +3233,8 @@
       <c r="AJ18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AK18" s="3" t="s">
-        <v>118</v>
+      <c r="AK18" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="AL18" s="3" t="s">
         <v>51</v>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E29816-C196-4D6E-AA54-38FEBCAF0E31}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48642E1E-7827-4EED-AEBB-E6FC90B4AD65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="220">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -966,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK23" sqref="AK23"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,9 @@
       <c r="AE2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="7"/>
+      <c r="AF2" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="11" t="s">

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48642E1E-7827-4EED-AEBB-E6FC90B4AD65}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C100E298-BEDF-4869-8625-C54557110ADB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="220">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -966,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1130,8 +1130,12 @@
       <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="K2" s="11" t="s">
         <v>47</v>
       </c>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C100E298-BEDF-4869-8625-C54557110ADB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E0B91F-D770-4084-81E0-FFA69CB39263}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="220">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -966,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1162,8 +1162,12 @@
       <c r="T2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="U2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="W2" s="11" t="s">
         <v>63</v>
       </c>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E0B91F-D770-4084-81E0-FFA69CB39263}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CEC8525-0466-4D96-B3CF-F1BDE728A842}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="219">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Ombre der Titelverteidiger</t>
   </si>
   <si>
-    <t>Aus nach Vorrunde</t>
-  </si>
-  <si>
     <t>Lui Lambrigger</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
   </si>
   <si>
     <t>Wadebisser</t>
-  </si>
-  <si>
-    <t>O:1</t>
   </si>
   <si>
     <t>O:2</t>
@@ -681,6 +675,9 @@
   </si>
   <si>
     <t>:pl: Polen</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;Aus nach Vorrunde&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -966,8 +963,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="AG4" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1110,7 @@
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1148,8 +1145,12 @@
       <c r="N2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="Q2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>51</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
@@ -1337,7 +1338,7 @@
         <v>49</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>57</v>
@@ -1464,7 +1465,7 @@
         <v>49</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>57</v>
@@ -1589,7 +1590,7 @@
         <v>55</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>57</v>
@@ -1717,7 +1718,7 @@
         <v>55</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>57</v>
@@ -1845,10 +1846,10 @@
         <v>52</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1859,10 +1860,10 @@
         <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>48</v>
@@ -1973,13 +1974,13 @@
         <v>63</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -1990,40 +1991,40 @@
         <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>60</v>
@@ -2035,7 +2036,7 @@
         <v>60</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>50</v>
@@ -2044,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>60</v>
@@ -2059,7 +2060,7 @@
         <v>60</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>60</v>
@@ -2074,7 +2075,7 @@
         <v>49</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>63</v>
@@ -2095,7 +2096,7 @@
         <v>61</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AM9" s="3" t="s">
         <v>62</v>
@@ -2104,13 +2105,13 @@
         <v>50</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -2118,10 +2119,10 @@
         <v>44345.692452442134</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>56</v>
@@ -2232,7 +2233,7 @@
         <v>49</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP10" s="3" t="s">
         <v>57</v>
@@ -2243,13 +2244,13 @@
         <v>44346.828506678241</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>48</v>
@@ -2315,7 +2316,7 @@
         <v>51</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>55</v>
@@ -2360,10 +2361,10 @@
         <v>50</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -2371,11 +2372,11 @@
         <v>44347.610221863426</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2485,10 +2486,10 @@
         <v>50</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -2496,13 +2497,13 @@
         <v>44347.660611446758</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>61</v>
@@ -2613,10 +2614,10 @@
         <v>52</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -2624,13 +2625,13 @@
         <v>44348.492419259259</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
@@ -2741,10 +2742,10 @@
         <v>55</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -2752,13 +2753,13 @@
         <v>44349.570228993056</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>48</v>
@@ -2836,13 +2837,13 @@
         <v>55</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>48</v>
@@ -2857,7 +2858,7 @@
         <v>51</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AL15" s="3" t="s">
         <v>49</v>
@@ -2869,7 +2870,7 @@
         <v>49</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AP15" s="3" t="s">
         <v>57</v>
@@ -2880,13 +2881,13 @@
         <v>44349.879789999999</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>56</v>
@@ -2997,13 +2998,13 @@
         <v>55</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -3011,13 +3012,13 @@
         <v>44351.428450497682</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>51</v>
@@ -3128,10 +3129,10 @@
         <v>49</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -3139,13 +3140,13 @@
         <v>44351.521401122685</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>51</v>
@@ -3177,8 +3178,8 @@
       <c r="N18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>117</v>
+      <c r="O18" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>48</v>
@@ -3232,7 +3233,7 @@
         <v>63</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AH18" s="3" t="s">
         <v>60</v>
@@ -3256,13 +3257,13 @@
         <v>49</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP18" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -3270,124 +3271,124 @@
         <v>44351.537212974537</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP19" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP19" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -3395,13 +3396,13 @@
         <v>44351.583451909726</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>47</v>
@@ -3512,7 +3513,7 @@
         <v>49</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP20" s="3" t="s">
         <v>57</v>
@@ -3523,14 +3524,14 @@
         <v>44351.59185138889</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
@@ -3640,10 +3641,10 @@
         <v>55</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3651,10 +3652,10 @@
         <v>44351.650900092594</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>56</v>
@@ -3747,7 +3748,7 @@
         <v>56</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ22" s="3" t="s">
         <v>67</v>
@@ -3765,7 +3766,7 @@
         <v>50</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AP22" s="3" t="s">
         <v>57</v>
@@ -3776,13 +3777,13 @@
         <v>44351.750726666665</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>47</v>
@@ -3824,7 +3825,7 @@
         <v>47</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>63</v>
@@ -3893,10 +3894,10 @@
         <v>55</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -3904,13 +3905,13 @@
         <v>44352.407088078704</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>54</v>
@@ -3940,7 +3941,7 @@
         <v>56</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>51</v>
@@ -3958,7 +3959,7 @@
         <v>54</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>51</v>
@@ -4021,10 +4022,10 @@
         <v>52</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -4032,10 +4033,10 @@
         <v>44352.420063831014</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>56</v>
@@ -4146,7 +4147,7 @@
         <v>55</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AP25" s="3" t="s">
         <v>57</v>
@@ -4157,13 +4158,13 @@
         <v>44353.7207208912</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>48</v>
@@ -4274,7 +4275,7 @@
         <v>52</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP26" s="3" t="s">
         <v>57</v>
@@ -4285,13 +4286,13 @@
         <v>44353.726277939815</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>48</v>
@@ -4402,7 +4403,7 @@
         <v>55</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP27" s="3" t="s">
         <v>57</v>
@@ -4413,10 +4414,10 @@
         <v>44354.614342407411</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>56</v>
@@ -4527,7 +4528,7 @@
         <v>55</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP28" s="3" t="s">
         <v>57</v>
@@ -4538,13 +4539,13 @@
         <v>44354.645761412037</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
@@ -4655,7 +4656,7 @@
         <v>49</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP29" s="3" t="s">
         <v>57</v>
@@ -4666,13 +4667,13 @@
         <v>44354.710225416668</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>51</v>
@@ -4693,13 +4694,13 @@
         <v>67</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>50</v>
@@ -4729,19 +4730,19 @@
         <v>47</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z30" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>55</v>
@@ -4783,7 +4784,7 @@
         <v>61</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AP30" s="3" t="s">
         <v>57</v>
@@ -4794,13 +4795,13 @@
         <v>44355.483471168976</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>56</v>
@@ -4857,7 +4858,7 @@
         <v>62</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>66</v>
@@ -4908,13 +4909,13 @@
         <v>67</v>
       </c>
       <c r="AN31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -4922,13 +4923,13 @@
         <v>44355.617516967592</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>55</v>
@@ -5039,7 +5040,7 @@
         <v>52</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP32" s="3" t="s">
         <v>57</v>
@@ -5050,13 +5051,13 @@
         <v>44355.651320682868</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>56</v>
@@ -5134,7 +5135,7 @@
         <v>50</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE33" s="3" t="s">
         <v>49</v>
@@ -5158,7 +5159,7 @@
         <v>61</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM33" s="3" t="s">
         <v>50</v>
@@ -5167,7 +5168,7 @@
         <v>55</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP33" s="3" t="s">
         <v>57</v>
@@ -5178,13 +5179,13 @@
         <v>44355.693081180551</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>67</v>
@@ -5226,7 +5227,7 @@
         <v>61</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>48</v>
@@ -5256,7 +5257,7 @@
         <v>49</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AC34" s="3" t="s">
         <v>67</v>
@@ -5271,7 +5272,7 @@
         <v>52</v>
       </c>
       <c r="AG34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH34" s="3" t="s">
         <v>66</v>
@@ -5295,10 +5296,10 @@
         <v>63</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5306,10 +5307,10 @@
         <v>44356.820878449071</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>47</v>
@@ -5420,7 +5421,7 @@
         <v>55</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AP35" s="3" t="s">
         <v>57</v>
@@ -5431,13 +5432,13 @@
         <v>44357.404179537036</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>56</v>
@@ -5548,7 +5549,7 @@
         <v>63</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AP36" s="3" t="s">
         <v>57</v>
@@ -5559,13 +5560,13 @@
         <v>44357.463211458336</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>48</v>
@@ -5676,7 +5677,7 @@
         <v>52</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP37" s="3" t="s">
         <v>57</v>
@@ -5687,10 +5688,10 @@
         <v>44357.517853460653</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>47</v>
@@ -5756,7 +5757,7 @@
         <v>63</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>63</v>
@@ -5801,7 +5802,7 @@
         <v>63</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP38" s="3" t="s">
         <v>57</v>
@@ -5812,10 +5813,10 @@
         <v>44357.582680381944</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>47</v>
@@ -5926,7 +5927,7 @@
         <v>55</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP39" s="3" t="s">
         <v>57</v>
@@ -5937,13 +5938,13 @@
         <v>44357.755932395834</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>48</v>
@@ -6048,13 +6049,13 @@
         <v>48</v>
       </c>
       <c r="AM40" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AN40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP40" s="3" t="s">
         <v>57</v>
@@ -6068,10 +6069,10 @@
         <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>54</v>
@@ -6182,10 +6183,10 @@
         <v>52</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AP41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
@@ -6193,10 +6194,10 @@
         <v>44357.936677835649</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>51</v>
@@ -6307,10 +6308,10 @@
         <v>55</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -6318,13 +6319,13 @@
         <v>44357.937155127314</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>48</v>
@@ -6435,10 +6436,10 @@
         <v>49</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP43" s="3" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
@@ -6446,13 +6447,13 @@
         <v>44358.337405185186</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>47</v>
@@ -6563,7 +6564,7 @@
         <v>50</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AP44" s="3" t="s">
         <v>57</v>
@@ -6574,14 +6575,14 @@
         <v>44358.45704332176</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="E45" s="3" t="s">
         <v>56</v>
       </c>
@@ -6691,10 +6692,10 @@
         <v>50</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -6702,13 +6703,13 @@
         <v>44358.513099976852</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>56</v>
@@ -6732,7 +6733,7 @@
         <v>52</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>63</v>
@@ -6783,7 +6784,7 @@
         <v>47</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>47</v>
@@ -6819,13 +6820,13 @@
         <v>52</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AP46" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ46" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -6833,13 +6834,13 @@
         <v>44358.541077800925</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>48</v>
@@ -6950,10 +6951,10 @@
         <v>55</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AP47" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
@@ -6961,13 +6962,13 @@
         <v>44358.786595127312</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>61</v>
@@ -7045,7 +7046,7 @@
         <v>55</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE48" s="3" t="s">
         <v>63</v>
@@ -7075,13 +7076,13 @@
         <v>51</v>
       </c>
       <c r="AN48" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AP48" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
@@ -7089,13 +7090,13 @@
         <v>44358.796914710649</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>61</v>
@@ -7206,10 +7207,10 @@
         <v>55</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AP49" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CEC8525-0466-4D96-B3CF-F1BDE728A842}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A739189-22BB-4E24-82FD-680084BDF0D3}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="219">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -665,9 +665,6 @@
     <t>:es: Spanien</t>
   </si>
   <si>
-    <t>:gb-sct: Schottland</t>
-  </si>
-  <si>
     <t>:ch: Schweiz</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>&lt;strike&gt;Aus nach Vorrunde&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;:gb-sct: Schottland&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG4" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1181,8 +1181,12 @@
       <c r="Z2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AA2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="AC2" s="11" t="s">
         <v>56</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>209</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -4025,7 +4029,7 @@
         <v>210</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -4784,7 +4788,7 @@
         <v>61</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AP30" s="3" t="s">
         <v>57</v>
@@ -4912,7 +4916,7 @@
         <v>80</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP31" s="3" t="s">
         <v>120</v>
@@ -5296,10 +5300,10 @@
         <v>63</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -6439,7 +6443,7 @@
         <v>209</v>
       </c>
       <c r="AP43" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
@@ -6695,7 +6699,7 @@
         <v>210</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -6820,7 +6824,7 @@
         <v>52</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP46" s="3" t="s">
         <v>93</v>
@@ -7079,7 +7083,7 @@
         <v>203</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AP48" s="3" t="s">
         <v>93</v>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A739189-22BB-4E24-82FD-680084BDF0D3}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5B2585DE-8CD7-46B2-99B4-D92BE64051C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6A814B7-64F2-4D4A-B920-26EE3FB7185E}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="219">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -671,13 +671,13 @@
     <t>:it: Italien</t>
   </si>
   <si>
-    <t>:pl: Polen</t>
-  </si>
-  <si>
     <t>&lt;strike&gt;Aus nach Vorrunde&lt;/strike&gt;</t>
   </si>
   <si>
     <t>&lt;strike&gt;:gb-sct: Schottland&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;:pl: Polen&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
   </sheetPr>
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1199,8 +1199,12 @@
       <c r="AF2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
+      <c r="AG2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AI2" s="11" t="s">
         <v>53</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>209</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -3236,8 +3240,8 @@
       <c r="AF18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AG18" s="3" t="s">
-        <v>116</v>
+      <c r="AG18" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="AH18" s="3" t="s">
         <v>60</v>
@@ -4029,7 +4033,7 @@
         <v>210</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -4788,7 +4792,7 @@
         <v>61</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP30" s="3" t="s">
         <v>57</v>
@@ -5300,10 +5304,10 @@
         <v>63</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -6443,7 +6447,7 @@
         <v>209</v>
       </c>
       <c r="AP43" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
@@ -6699,7 +6703,7 @@
         <v>210</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -7083,7 +7087,7 @@
         <v>203</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AP48" s="3" t="s">
         <v>93</v>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{295944E1-658D-44DB-AE7B-8721E9FFD5C3}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56330BB0-60C9-410D-B063-DA04B6D4EF5E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Judith (Siebesiäch) Strässle</t>
   </si>
   <si>
-    <t>Viertelfinale</t>
-  </si>
-  <si>
     <t>jl@awp.ch</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>Raymond Weisskopf</t>
   </si>
   <si>
-    <t>Halbfinale oder besser</t>
-  </si>
-  <si>
     <t>cf@awp.ch</t>
   </si>
   <si>
@@ -622,9 +616,6 @@
     <t>:es: Spanien</t>
   </si>
   <si>
-    <t>:ch: Schweiz</t>
-  </si>
-  <si>
     <t>:it: Italien</t>
   </si>
   <si>
@@ -637,18 +628,6 @@
     <t>&lt;strike&gt;:pl: Polen&lt;/strike&gt;</t>
   </si>
   <si>
-    <t>VF1</t>
-  </si>
-  <si>
-    <t>VF2</t>
-  </si>
-  <si>
-    <t>VF3</t>
-  </si>
-  <si>
-    <t>VF4</t>
-  </si>
-  <si>
     <t>HF1</t>
   </si>
   <si>
@@ -701,6 +680,27 @@
   </si>
   <si>
     <t>&lt;strike&gt;:de: Deutschland&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>Schweiz-Spanien</t>
+  </si>
+  <si>
+    <t>Belgien-Italien</t>
+  </si>
+  <si>
+    <t>Tschechien-Dänemark</t>
+  </si>
+  <si>
+    <t>England-Ukraine</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Viertelfinale&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;Halbfinale oder besser&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;:ch: Schweiz&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -720,10 +720,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -732,7 +734,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -792,6 +800,7 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1012,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AU8" sqref="AU8"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1136,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -1136,58 +1145,58 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AQ1" s="13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AR1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AS1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AZ1" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>37</v>
@@ -1201,7 +1210,7 @@
     </row>
     <row r="2" spans="1:58" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1291,7 +1300,7 @@
         <v>47</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>61</v>
@@ -1306,7 +1315,7 @@
         <v>47</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AM2" s="11" t="s">
         <v>55</v>
@@ -1338,7 +1347,9 @@
       <c r="AV2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AW2" s="7"/>
+      <c r="AW2" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
@@ -1346,7 +1357,9 @@
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
-      <c r="BE2" s="8"/>
+      <c r="BE2" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="BF2" s="9"/>
     </row>
     <row r="3" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1354,13 +1367,13 @@
         <v>44357.404179537036</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>52</v>
@@ -1494,18 +1507,26 @@
       <c r="AV3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
+      <c r="AW3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ3" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="BA3" s="5"/>
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="BF3" s="5"/>
     </row>
@@ -1514,13 +1535,13 @@
         <v>44358.796914710649</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>56</v>
@@ -1654,18 +1675,26 @@
       <c r="AV4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
+      <c r="AW4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1673,13 +1702,13 @@
         <v>44353.726277939815</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
@@ -1813,18 +1842,26 @@
       <c r="AV5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
+      <c r="AW5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1832,13 +1869,13 @@
         <v>44353.7207208912</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>44</v>
@@ -1972,18 +2009,26 @@
       <c r="AV6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
+      <c r="AW6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ6" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1991,13 +2036,13 @@
         <v>44351.583451909726</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>43</v>
@@ -2131,18 +2176,26 @@
       <c r="AV7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
+      <c r="AW7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ7" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="BA7" s="5"/>
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2150,13 +2203,13 @@
         <v>44355.651320682868</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>52</v>
@@ -2290,18 +2343,26 @@
       <c r="AV8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
+      <c r="AW8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA8" s="5"/>
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2309,13 +2370,13 @@
         <v>44358.337405185186</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>43</v>
@@ -2449,18 +2510,26 @@
       <c r="AV9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
+      <c r="AW9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA9" s="5"/>
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2468,13 +2537,13 @@
         <v>44351.750726666665</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>43</v>
@@ -2608,18 +2677,26 @@
       <c r="AV10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
+      <c r="AW10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ10" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA10" s="5"/>
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2627,10 +2704,10 @@
         <v>44351.650900092594</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>52</v>
@@ -2764,18 +2841,26 @@
       <c r="AV11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
+      <c r="AW11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ11" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2786,10 +2871,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>50</v>
@@ -2923,18 +3008,26 @@
       <c r="AV12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
+      <c r="AW12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ12" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2942,13 +3035,13 @@
         <v>44354.645761412037</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>52</v>
@@ -3082,18 +3175,26 @@
       <c r="AV13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
+      <c r="AW13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ13" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3101,13 +3202,13 @@
         <v>44351.521401122685</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
@@ -3241,18 +3342,26 @@
       <c r="AV14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
+      <c r="AW14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ14" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3260,13 +3369,13 @@
         <v>44351.428450497682</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>47</v>
@@ -3400,18 +3509,26 @@
       <c r="AV15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
+      <c r="AW15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ15" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3419,13 +3536,13 @@
         <v>44358.513099976852</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>52</v>
@@ -3449,7 +3566,7 @@
         <v>48</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>58</v>
@@ -3559,18 +3676,26 @@
       <c r="AV16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
+      <c r="AW16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ16" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="BA16" s="5"/>
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3578,13 +3703,13 @@
         <v>44349.570228993056</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>44</v>
@@ -3683,7 +3808,7 @@
         <v>47</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL17" s="3" t="s">
         <v>45</v>
@@ -3718,18 +3843,26 @@
       <c r="AV17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
+      <c r="AW17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ17" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BA17" s="5"/>
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="BE17" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3877,18 +4010,26 @@
       <c r="AV18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5"/>
-      <c r="AZ18" s="5"/>
+      <c r="AW18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ18" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="BA18" s="5"/>
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3896,14 +4037,14 @@
         <v>44358.45704332176</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
@@ -4036,18 +4177,26 @@
       <c r="AV19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
-      <c r="AY19" s="5"/>
-      <c r="AZ19" s="5"/>
+      <c r="AW19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ19" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="BA19" s="5"/>
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4055,11 +4204,11 @@
         <v>44347.610221863426</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E20" s="3" t="s">
         <v>52</v>
       </c>
@@ -4192,18 +4341,26 @@
       <c r="AV20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
+      <c r="AW20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ20" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA20" s="5"/>
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4211,13 +4368,13 @@
         <v>44355.617516967592</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>51</v>
@@ -4351,18 +4508,26 @@
       <c r="AV21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
+      <c r="AW21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ21" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="BA21" s="5"/>
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4370,10 +4535,10 @@
         <v>44354.614342407411</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>52</v>
@@ -4507,18 +4672,26 @@
       <c r="AV22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
+      <c r="AW22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ22" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA22" s="5"/>
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4526,10 +4699,10 @@
         <v>44352.420063831014</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
@@ -4663,18 +4836,26 @@
       <c r="AV23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
+      <c r="AW23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ23" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA23" s="5"/>
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4822,18 +5003,26 @@
       <c r="AV24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
+      <c r="AW24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ24" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA24" s="5"/>
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4841,13 +5030,13 @@
         <v>44347.660611446758</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>56</v>
@@ -4981,18 +5170,26 @@
       <c r="AV25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
+      <c r="AW25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ25" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA25" s="5"/>
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5000,13 +5197,13 @@
         <v>44355.483471168976</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>52</v>
@@ -5063,7 +5260,7 @@
         <v>57</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>61</v>
@@ -5140,18 +5337,26 @@
       <c r="AV26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AW26" s="5"/>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="5"/>
-      <c r="AZ26" s="5"/>
+      <c r="AW26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ26" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="BA26" s="5"/>
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BE26" s="3" t="s">
-        <v>110</v>
+        <v>226</v>
+      </c>
+      <c r="BE26" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5159,13 +5364,13 @@
         <v>44351.59185138889</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>44</v>
@@ -5299,18 +5504,26 @@
       <c r="AV27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
+      <c r="AW27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ27" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="BA27" s="5"/>
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE27" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5458,18 +5671,26 @@
       <c r="AV28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
+      <c r="AW28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ28" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA28" s="5"/>
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5477,13 +5698,13 @@
         <v>44357.937155127314</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>44</v>
@@ -5617,18 +5838,26 @@
       <c r="AV29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
+      <c r="AW29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ29" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="BA29" s="5"/>
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5636,13 +5865,13 @@
         <v>44357.463211458336</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>44</v>
@@ -5776,18 +6005,26 @@
       <c r="AV30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="5"/>
-      <c r="AZ30" s="5"/>
+      <c r="AW30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ30" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="BA30" s="5"/>
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5935,18 +6172,26 @@
       <c r="AV31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
+      <c r="AW31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ31" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="BA31" s="5"/>
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6091,18 +6336,26 @@
       <c r="AV32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="5"/>
-      <c r="AZ32" s="5"/>
+      <c r="AW32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ32" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA32" s="5"/>
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE32" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6110,13 +6363,13 @@
         <v>44358.786595127312</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>56</v>
@@ -6224,7 +6477,7 @@
         <v>47</v>
       </c>
       <c r="AN33" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AO33" s="5" t="s">
         <v>47</v>
@@ -6250,18 +6503,26 @@
       <c r="AV33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
+      <c r="AW33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ33" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA33" s="5"/>
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6269,13 +6530,13 @@
         <v>44352.407088078704</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>50</v>
@@ -6409,18 +6670,26 @@
       <c r="AV34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
+      <c r="AW34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ34" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA34" s="5"/>
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6428,11 +6697,11 @@
         <v>44351.537212974537</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E35" s="3" t="s">
         <v>43</v>
       </c>
@@ -6548,7 +6817,7 @@
         <v>45</v>
       </c>
       <c r="AQ35" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AR35" s="5" t="s">
         <v>46</v>
@@ -6565,18 +6834,26 @@
       <c r="AV35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="5"/>
-      <c r="AY35" s="5"/>
-      <c r="AZ35" s="5"/>
+      <c r="AW35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ35" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA35" s="5"/>
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE35" s="3" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6584,10 +6861,10 @@
         <v>44357.517853460653</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>43</v>
@@ -6653,7 +6930,7 @@
         <v>58</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>58</v>
@@ -6721,18 +6998,26 @@
       <c r="AV36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW36" s="5"/>
-      <c r="AX36" s="5"/>
-      <c r="AY36" s="5"/>
-      <c r="AZ36" s="5"/>
+      <c r="AW36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ36" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="BA36" s="5"/>
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6740,13 +7025,13 @@
         <v>44357.755932395834</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>44</v>
@@ -6880,18 +7165,26 @@
       <c r="AV37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AW37" s="5"/>
-      <c r="AX37" s="5"/>
-      <c r="AY37" s="5"/>
-      <c r="AZ37" s="5"/>
+      <c r="AW37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ37" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA37" s="5"/>
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7039,18 +7332,26 @@
       <c r="AV38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
+      <c r="AW38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ38" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="BA38" s="5"/>
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7058,13 +7359,13 @@
         <v>44349.879789999999</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>52</v>
@@ -7198,18 +7499,26 @@
       <c r="AV39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="5"/>
-      <c r="AZ39" s="5"/>
+      <c r="AW39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ39" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA39" s="5"/>
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE39" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7217,13 +7526,13 @@
         <v>44358.541077800925</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>44</v>
@@ -7357,18 +7666,26 @@
       <c r="AV40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="5"/>
-      <c r="AZ40" s="5"/>
+      <c r="AW40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ40" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="BA40" s="5"/>
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE40" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7376,10 +7693,10 @@
         <v>44356.820878449071</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>43</v>
@@ -7513,18 +7830,26 @@
       <c r="AV41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="5"/>
+      <c r="AW41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ41" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="BA41" s="5"/>
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="BE41" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7532,10 +7857,10 @@
         <v>44357.936677835649</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>47</v>
@@ -7669,18 +7994,26 @@
       <c r="AV42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW42" s="5"/>
-      <c r="AX42" s="5"/>
-      <c r="AY42" s="5"/>
-      <c r="AZ42" s="5"/>
+      <c r="AW42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ42" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BA42" s="5"/>
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE42" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7825,18 +8158,26 @@
       <c r="AV43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
-      <c r="AZ43" s="5"/>
+      <c r="AW43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ43" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA43" s="5"/>
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7844,13 +8185,13 @@
         <v>44348.492419259259</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>43</v>
@@ -7984,18 +8325,26 @@
       <c r="AV44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW44" s="5"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="5"/>
-      <c r="AZ44" s="5"/>
+      <c r="AW44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ44" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BA44" s="5"/>
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE44" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8143,18 +8492,26 @@
       <c r="AV45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW45" s="2"/>
-      <c r="AX45" s="2"/>
-      <c r="AY45" s="2"/>
-      <c r="AZ45" s="2"/>
+      <c r="AW45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ45" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="BA45" s="2"/>
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8162,13 +8519,13 @@
         <v>44355.693081180551</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>62</v>
@@ -8240,7 +8597,7 @@
         <v>45</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>62</v>
@@ -8302,18 +8659,26 @@
       <c r="AV46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AW46" s="5"/>
-      <c r="AX46" s="5"/>
-      <c r="AY46" s="5"/>
-      <c r="AZ46" s="5"/>
+      <c r="AW46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ46" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="BA46" s="5"/>
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8458,18 +8823,26 @@
       <c r="AV47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="2"/>
+      <c r="AW47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ47" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="BA47" s="2"/>
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BE47" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8477,13 +8850,13 @@
         <v>44354.710225416668</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>47</v>
@@ -8504,7 +8877,7 @@
         <v>62</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>74</v>
@@ -8540,10 +8913,10 @@
         <v>43</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>74</v>
@@ -8552,7 +8925,7 @@
         <v>50</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>51</v>
@@ -8612,23 +8985,31 @@
         <v>74</v>
       </c>
       <c r="AU48" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AV48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
-      <c r="AZ48" s="5"/>
+      <c r="AW48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ48" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BE48" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8636,10 +9017,10 @@
         <v>44357.582680381944</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>43</v>
@@ -8773,18 +9154,26 @@
       <c r="AV49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
-      <c r="AZ49" s="5"/>
+      <c r="AW49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ49" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="BA49" s="5"/>
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
       <c r="BD49" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="BE49" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56330BB0-60C9-410D-B063-DA04B6D4EF5E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C43F00-3E33-4896-9481-B7C652B7EAFF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,13 +694,13 @@
     <t>England-Ukraine</t>
   </si>
   <si>
-    <t>&lt;p&gt;Viertelfinale&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;strike&gt;Halbfinale oder besser&lt;/strike&gt;</t>
   </si>
   <si>
     <t>&lt;strike&gt;:ch: Schweiz&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Viertelfinale&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3"/>
+    <sheetView tabSelected="1" topLeftCell="AX31" workbookViewId="0">
+      <selection activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,7 @@
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="BF2" s="9"/>
     </row>
@@ -1694,7 +1694,7 @@
         <v>216</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>218</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
         <v>197</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3528,7 +3528,7 @@
         <v>218</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>198</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4029,7 +4029,7 @@
         <v>218</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4360,7 +4360,7 @@
         <v>219</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5189,7 +5189,7 @@
         <v>195</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5353,10 +5353,10 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE26" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5523,7 +5523,7 @@
         <v>218</v>
       </c>
       <c r="BE27" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6522,7 +6522,7 @@
         <v>201</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6853,7 +6853,7 @@
         <v>195</v>
       </c>
       <c r="BE35" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7685,7 +7685,7 @@
         <v>195</v>
       </c>
       <c r="BE40" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8013,7 +8013,7 @@
         <v>195</v>
       </c>
       <c r="BE42" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8344,7 +8344,7 @@
         <v>218</v>
       </c>
       <c r="BE44" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C43F00-3E33-4896-9481-B7C652B7EAFF}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9F4CA8-F4D9-4324-B580-100C96CA7BD0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -607,9 +607,6 @@
     <t>Resultate</t>
   </si>
   <si>
-    <t>:be: Belgien</t>
-  </si>
-  <si>
     <t>:gb-eng: England</t>
   </si>
   <si>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>&lt;b&gt;Viertelfinale&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;:be: Belgien&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX31" workbookViewId="0">
-      <selection activeCell="BE10" sqref="BE10"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1136,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -1145,58 +1145,58 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="AR1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="AV1" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="AW1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="BA1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>37</v>
@@ -1350,7 +1350,9 @@
       <c r="AW2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="7"/>
+      <c r="AX2" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
@@ -1358,7 +1360,7 @@
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BF2" s="9"/>
     </row>
@@ -1523,10 +1525,10 @@
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BF3" s="5"/>
     </row>
@@ -1691,10 +1693,10 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1858,10 +1860,10 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2025,10 +2027,10 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2192,10 +2194,10 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2359,10 +2361,10 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2526,10 +2528,10 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2693,10 +2695,10 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2857,10 +2859,10 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3024,10 +3026,10 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3191,10 +3193,10 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3358,10 +3360,10 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3525,10 +3527,10 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3692,10 +3694,10 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3859,10 +3861,10 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE17" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4026,10 +4028,10 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4193,10 +4195,10 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4357,10 +4359,10 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4524,10 +4526,10 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4688,10 +4690,10 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4852,10 +4854,10 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5019,10 +5021,10 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5186,10 +5188,10 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5353,10 +5355,10 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BE26" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5520,10 +5522,10 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE27" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5687,10 +5689,10 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5854,10 +5856,10 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6021,10 +6023,10 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6188,10 +6190,10 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6352,10 +6354,10 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE32" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6519,10 +6521,10 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6686,10 +6688,10 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6850,10 +6852,10 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE35" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7014,10 +7016,10 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7181,10 +7183,10 @@
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7348,10 +7350,10 @@
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7515,10 +7517,10 @@
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE39" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7682,10 +7684,10 @@
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE40" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7846,10 +7848,10 @@
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE41" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="BE41" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8010,10 +8012,10 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE42" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8174,10 +8176,10 @@
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8341,10 +8343,10 @@
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8508,10 +8510,10 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8675,10 +8677,10 @@
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8839,10 +8841,10 @@
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -9006,10 +9008,10 @@
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE48" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -9170,10 +9172,10 @@
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
       <c r="BD49" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BE49" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9F4CA8-F4D9-4324-B580-100C96CA7BD0}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA49C5F-0259-48FF-A7E9-8C7423A15A40}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:BD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,9 @@
       <c r="AX2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AY2" s="7"/>
+      <c r="AY2" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA49C5F-0259-48FF-A7E9-8C7423A15A40}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{229EBA95-410B-4F67-990B-897BAD37B14C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="227">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -781,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -801,6 +801,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1021,8 +1022,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1357,9 @@
       <c r="AY2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="7"/>
+      <c r="AZ2" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
@@ -2189,8 +2192,8 @@
       <c r="AY7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AZ7" s="16" t="s">
-        <v>50</v>
+      <c r="AZ7" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="BA7" s="5"/>
       <c r="BB7" s="5"/>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{229EBA95-410B-4F67-990B-897BAD37B14C}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FF423D-9322-4399-9583-36962C303C42}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="228">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Jurij Lambrecht</t>
   </si>
   <si>
-    <t>marc.kaufmann@awp.ch</t>
-  </si>
-  <si>
     <t>Marc Kaufmann</t>
   </si>
   <si>
@@ -701,6 +698,12 @@
   </si>
   <si>
     <t>&lt;strike&gt;:be: Belgien&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>paul.wolanin@datazug.ch</t>
+  </si>
+  <si>
+    <t>kaufmannmarc@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -802,6 +805,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1022,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AZ3" sqref="AZ3"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AX20" sqref="AX20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -1146,58 +1150,58 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AR1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="AV1" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="AW1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="BA1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>37</v>
@@ -1211,7 +1215,7 @@
     </row>
     <row r="2" spans="1:58" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1301,7 +1305,7 @@
         <v>47</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>61</v>
@@ -1316,7 +1320,7 @@
         <v>47</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM2" s="11" t="s">
         <v>55</v>
@@ -1365,7 +1369,7 @@
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BF2" s="9"/>
     </row>
@@ -1374,13 +1378,13 @@
         <v>44357.404179537036</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>52</v>
@@ -1530,10 +1534,10 @@
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BF3" s="5"/>
     </row>
@@ -1542,13 +1546,13 @@
         <v>44358.796914710649</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>56</v>
@@ -1698,10 +1702,10 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1709,13 +1713,13 @@
         <v>44353.726277939815</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
@@ -1865,10 +1869,10 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1876,13 +1880,13 @@
         <v>44353.7207208912</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>44</v>
@@ -2032,10 +2036,10 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2043,13 +2047,13 @@
         <v>44351.583451909726</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>43</v>
@@ -2199,10 +2203,10 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2210,13 +2214,13 @@
         <v>44355.651320682868</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>52</v>
@@ -2366,10 +2370,10 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2377,13 +2381,13 @@
         <v>44358.337405185186</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>43</v>
@@ -2533,10 +2537,10 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2544,13 +2548,13 @@
         <v>44351.750726666665</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>43</v>
@@ -2700,10 +2704,10 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2711,10 +2715,10 @@
         <v>44351.650900092594</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>52</v>
@@ -2864,10 +2868,10 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2878,10 +2882,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>50</v>
@@ -3031,10 +3035,10 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3042,13 +3046,13 @@
         <v>44354.645761412037</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>52</v>
@@ -3198,10 +3202,10 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3209,13 +3213,13 @@
         <v>44351.521401122685</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
@@ -3365,10 +3369,10 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3376,13 +3380,13 @@
         <v>44351.428450497682</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>47</v>
@@ -3517,7 +3521,7 @@
         <v>58</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AX15" s="5" t="s">
         <v>56</v>
@@ -3532,10 +3536,10 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3543,13 +3547,13 @@
         <v>44358.513099976852</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>52</v>
@@ -3573,7 +3577,7 @@
         <v>48</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>58</v>
@@ -3699,10 +3703,10 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3710,13 +3714,13 @@
         <v>44349.570228993056</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>44</v>
@@ -3815,7 +3819,7 @@
         <v>47</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL17" s="3" t="s">
         <v>45</v>
@@ -3866,10 +3870,10 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BE17" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4033,10 +4037,10 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4044,14 +4048,14 @@
         <v>44358.45704332176</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
@@ -4187,23 +4191,23 @@
       <c r="AW19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AX19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ19" s="16" t="s">
-        <v>50</v>
+      <c r="AX19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ19" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="BA19" s="5"/>
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4364,10 +4368,10 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4375,13 +4379,13 @@
         <v>44355.617516967592</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>51</v>
@@ -4531,10 +4535,10 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4542,10 +4546,10 @@
         <v>44354.614342407411</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>52</v>
@@ -4695,10 +4699,10 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4706,10 +4710,10 @@
         <v>44352.420063831014</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
@@ -4859,10 +4863,10 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5026,24 +5030,24 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44347.660611446758</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>56</v>
@@ -5193,10 +5197,10 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5204,13 +5208,13 @@
         <v>44355.483471168976</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>52</v>
@@ -5267,7 +5271,7 @@
         <v>57</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>61</v>
@@ -5360,10 +5364,10 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BE26" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5371,13 +5375,13 @@
         <v>44351.59185138889</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>44</v>
@@ -5527,10 +5531,10 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE27" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5694,10 +5698,10 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5705,13 +5709,13 @@
         <v>44357.937155127314</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>44</v>
@@ -5861,10 +5865,10 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5872,13 +5876,13 @@
         <v>44357.463211458336</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>44</v>
@@ -6028,10 +6032,10 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6195,10 +6199,10 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6359,24 +6363,24 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE32" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44358.786595127312</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>120</v>
+      <c r="B33" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>56</v>
@@ -6484,7 +6488,7 @@
         <v>47</v>
       </c>
       <c r="AN33" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO33" s="5" t="s">
         <v>47</v>
@@ -6526,10 +6530,10 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6537,13 +6541,13 @@
         <v>44352.407088078704</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>50</v>
@@ -6693,10 +6697,10 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6704,11 +6708,11 @@
         <v>44351.537212974537</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E35" s="3" t="s">
         <v>43</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>45</v>
       </c>
       <c r="AQ35" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AR35" s="5" t="s">
         <v>46</v>
@@ -6857,10 +6861,10 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE35" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6868,10 +6872,10 @@
         <v>44357.517853460653</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>43</v>
@@ -6937,7 +6941,7 @@
         <v>58</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>58</v>
@@ -7021,10 +7025,10 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7032,13 +7036,13 @@
         <v>44357.755932395834</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>44</v>
@@ -7188,10 +7192,10 @@
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7355,10 +7359,10 @@
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7366,13 +7370,13 @@
         <v>44349.879789999999</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>52</v>
@@ -7522,10 +7526,10 @@
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE39" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7533,13 +7537,13 @@
         <v>44358.541077800925</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>44</v>
@@ -7689,10 +7693,10 @@
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE40" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7700,10 +7704,10 @@
         <v>44356.820878449071</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>43</v>
@@ -7853,10 +7857,10 @@
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BE41" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="BE41" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7864,10 +7868,10 @@
         <v>44357.936677835649</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>47</v>
@@ -8017,10 +8021,10 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE42" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8181,10 +8185,10 @@
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8192,13 +8196,13 @@
         <v>44348.492419259259</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>43</v>
@@ -8348,10 +8352,10 @@
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE44" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8515,10 +8519,10 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8526,13 +8530,13 @@
         <v>44355.693081180551</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>62</v>
@@ -8604,7 +8608,7 @@
         <v>45</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>62</v>
@@ -8682,10 +8686,10 @@
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8846,10 +8850,10 @@
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8857,13 +8861,13 @@
         <v>44354.710225416668</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>47</v>
@@ -8884,7 +8888,7 @@
         <v>62</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>74</v>
@@ -8920,10 +8924,10 @@
         <v>43</v>
       </c>
       <c r="W48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X48" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>74</v>
@@ -8932,7 +8936,7 @@
         <v>50</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>51</v>
@@ -8992,7 +8996,7 @@
         <v>74</v>
       </c>
       <c r="AU48" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AV48" s="6" t="s">
         <v>45</v>
@@ -9007,16 +9011,16 @@
         <v>47</v>
       </c>
       <c r="AZ48" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE48" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -9024,10 +9028,10 @@
         <v>44357.582680381944</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>43</v>
@@ -9177,10 +9181,10 @@
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
       <c r="BD49" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE49" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FF423D-9322-4399-9583-36962C303C42}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52F1AF4-6715-42EC-A96E-875547C9DD79}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="228">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -607,9 +607,6 @@
     <t>:gb-eng: England</t>
   </si>
   <si>
-    <t>:es: Spanien</t>
-  </si>
-  <si>
     <t>:it: Italien</t>
   </si>
   <si>
@@ -622,12 +619,6 @@
     <t>&lt;strike&gt;:pl: Polen&lt;/strike&gt;</t>
   </si>
   <si>
-    <t>HF1</t>
-  </si>
-  <si>
-    <t>HF2</t>
-  </si>
-  <si>
     <t>Finale</t>
   </si>
   <si>
@@ -704,6 +695,15 @@
   </si>
   <si>
     <t>kaufmannmarc@hotmail.com</t>
+  </si>
+  <si>
+    <t>Italien-Spanien</t>
+  </si>
+  <si>
+    <t>England-Dänemark</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;:es: Spanien&lt;/strike&gt;</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -806,6 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1026,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AX20" sqref="AX20"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BD27" sqref="BD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1142,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -1150,58 +1151,58 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AR1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AT1" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>209</v>
-      </c>
       <c r="AW1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BA1" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>37</v>
@@ -1364,12 +1365,14 @@
       <c r="AZ2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BA2" s="7"/>
+      <c r="BA2" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="BF2" s="9"/>
     </row>
@@ -1530,14 +1533,18 @@
       <c r="AZ3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
+      <c r="BA3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="BC3" s="5"/>
       <c r="BD3" s="1" t="s">
         <v>194</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BF3" s="5"/>
     </row>
@@ -1698,14 +1705,18 @@
       <c r="AZ4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
+      <c r="BA4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC4" s="5"/>
       <c r="BD4" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -1865,14 +1876,18 @@
       <c r="AZ5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
+      <c r="BA5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="BC5" s="5"/>
       <c r="BD5" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2032,14 +2047,18 @@
       <c r="AZ6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
+      <c r="BA6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB6" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BC6" s="5"/>
       <c r="BD6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2199,14 +2218,18 @@
       <c r="AZ7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
+      <c r="BA7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB7" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="BC7" s="5"/>
       <c r="BD7" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2366,14 +2389,18 @@
       <c r="AZ8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
+      <c r="BA8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BC8" s="5"/>
       <c r="BD8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2533,14 +2560,18 @@
       <c r="AZ9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA9" s="5"/>
-      <c r="BB9" s="5"/>
+      <c r="BA9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC9" s="5"/>
       <c r="BD9" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2700,14 +2731,18 @@
       <c r="AZ10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
+      <c r="BA10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB10" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BC10" s="5"/>
       <c r="BD10" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -2864,14 +2899,18 @@
       <c r="AZ11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
+      <c r="BA11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB11" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC11" s="5"/>
       <c r="BD11" s="1" t="s">
         <v>194</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3031,14 +3070,18 @@
       <c r="AZ12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
+      <c r="BA12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB12" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="BC12" s="5"/>
       <c r="BD12" s="1" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3198,14 +3241,18 @@
       <c r="AZ13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
+      <c r="BA13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB13" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC13" s="5"/>
       <c r="BD13" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3365,14 +3412,18 @@
       <c r="AZ14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
+      <c r="BA14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB14" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC14" s="5"/>
       <c r="BD14" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3532,14 +3583,18 @@
       <c r="AZ15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
+      <c r="BA15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB15" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC15" s="5"/>
       <c r="BD15" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
@@ -3699,14 +3754,18 @@
       <c r="AZ16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BA16" s="5"/>
-      <c r="BB16" s="5"/>
+      <c r="BA16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB16" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC16" s="5"/>
       <c r="BD16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -3866,14 +3925,18 @@
       <c r="AZ17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
+      <c r="BA17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB17" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BE17" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4033,14 +4096,18 @@
       <c r="AZ18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
+      <c r="BA18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB18" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="BC18" s="5"/>
       <c r="BD18" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4200,14 +4267,18 @@
       <c r="AZ19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BA19" s="5"/>
-      <c r="BB19" s="5"/>
+      <c r="BA19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB19" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC19" s="5"/>
       <c r="BD19" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4364,14 +4435,18 @@
       <c r="AZ20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA20" s="5"/>
-      <c r="BB20" s="5"/>
+      <c r="BA20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB20" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC20" s="5"/>
       <c r="BD20" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4531,14 +4606,18 @@
       <c r="AZ21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
+      <c r="BA21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB21" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="BC21" s="5"/>
       <c r="BD21" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4695,14 +4774,18 @@
       <c r="AZ22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
+      <c r="BA22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB22" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="BC22" s="5"/>
       <c r="BD22" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -4859,14 +4942,18 @@
       <c r="AZ23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
+      <c r="BA23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB23" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC23" s="5"/>
       <c r="BD23" s="1" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5026,14 +5113,18 @@
       <c r="AZ24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
+      <c r="BA24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB24" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="BC24" s="5"/>
       <c r="BD24" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5041,7 +5132,7 @@
         <v>44347.660611446758</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>88</v>
@@ -5193,14 +5284,18 @@
       <c r="AZ25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
+      <c r="BA25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB25" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="BC25" s="5"/>
       <c r="BD25" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5360,14 +5455,18 @@
       <c r="AZ26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BA26" s="5"/>
-      <c r="BB26" s="5"/>
+      <c r="BA26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB26" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="BC26" s="5"/>
       <c r="BD26" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="BE26" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5527,14 +5626,18 @@
       <c r="AZ27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="5"/>
+      <c r="BA27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB27" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="BC27" s="5"/>
       <c r="BD27" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE27" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5694,14 +5797,18 @@
       <c r="AZ28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
+      <c r="BA28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB28" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BC28" s="5"/>
       <c r="BD28" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -5861,14 +5968,18 @@
       <c r="AZ29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
+      <c r="BA29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB29" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="BC29" s="5"/>
       <c r="BD29" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6028,14 +6139,18 @@
       <c r="AZ30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BA30" s="5"/>
-      <c r="BB30" s="5"/>
+      <c r="BA30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB30" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="BC30" s="5"/>
       <c r="BD30" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6195,14 +6310,18 @@
       <c r="AZ31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
+      <c r="BA31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB31" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="BC31" s="5"/>
       <c r="BD31" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6359,14 +6478,18 @@
       <c r="AZ32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA32" s="5"/>
-      <c r="BB32" s="5"/>
+      <c r="BA32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB32" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="BC32" s="5"/>
       <c r="BD32" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE32" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6374,7 +6497,7 @@
         <v>44358.786595127312</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>187</v>
@@ -6526,14 +6649,18 @@
       <c r="AZ33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
+      <c r="BA33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB33" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6693,14 +6820,18 @@
       <c r="AZ34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
+      <c r="BA34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB34" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="BC34" s="5"/>
       <c r="BD34" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -6857,14 +6988,18 @@
       <c r="AZ35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA35" s="5"/>
-      <c r="BB35" s="5"/>
+      <c r="BA35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB35" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BC35" s="5"/>
       <c r="BD35" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE35" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7021,14 +7156,18 @@
       <c r="AZ36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BA36" s="5"/>
-      <c r="BB36" s="5"/>
+      <c r="BA36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB36" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BC36" s="5"/>
       <c r="BD36" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7188,14 +7327,18 @@
       <c r="AZ37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA37" s="5"/>
-      <c r="BB37" s="5"/>
+      <c r="BA37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB37" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BC37" s="5"/>
       <c r="BD37" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7355,14 +7498,18 @@
       <c r="AZ38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
+      <c r="BA38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB38" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BC38" s="5"/>
       <c r="BD38" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BE38" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7522,14 +7669,18 @@
       <c r="AZ39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA39" s="5"/>
-      <c r="BB39" s="5"/>
+      <c r="BA39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB39" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC39" s="5"/>
       <c r="BD39" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE39" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7689,14 +7840,18 @@
       <c r="AZ40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
+      <c r="BA40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB40" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="BC40" s="5"/>
       <c r="BD40" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE40" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -7853,14 +8008,18 @@
       <c r="AZ41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
+      <c r="BA41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB41" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="BC41" s="5"/>
       <c r="BD41" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BE41" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8017,14 +8176,18 @@
       <c r="AZ42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA42" s="5"/>
-      <c r="BB42" s="5"/>
+      <c r="BA42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB42" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="BC42" s="5"/>
       <c r="BD42" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE42" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8181,14 +8344,18 @@
       <c r="AZ43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA43" s="5"/>
-      <c r="BB43" s="5"/>
+      <c r="BA43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB43" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BC43" s="5"/>
       <c r="BD43" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8348,14 +8515,18 @@
       <c r="AZ44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BA44" s="5"/>
-      <c r="BB44" s="5"/>
+      <c r="BA44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB44" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="BC44" s="5"/>
       <c r="BD44" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE44" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8515,14 +8686,18 @@
       <c r="AZ45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
+      <c r="BA45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB45" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="BC45" s="2"/>
       <c r="BD45" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8682,14 +8857,18 @@
       <c r="AZ46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BA46" s="5"/>
-      <c r="BB46" s="5"/>
+      <c r="BA46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB46" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="BC46" s="5"/>
       <c r="BD46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE46" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -8846,14 +9025,18 @@
       <c r="AZ47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
+      <c r="BA47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB47" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="BC47" s="2"/>
       <c r="BD47" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BE47" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -9013,14 +9196,18 @@
       <c r="AZ48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
+      <c r="BA48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB48" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BE48" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
@@ -9177,14 +9364,18 @@
       <c r="AZ49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BA49" s="5"/>
-      <c r="BB49" s="5"/>
+      <c r="BA49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB49" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BC49" s="5"/>
       <c r="BD49" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BE49" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52F1AF4-6715-42EC-A96E-875547C9DD79}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95618439-DF8C-4737-A08A-5051C65F7C0E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="228">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -1027,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BD27" sqref="BD27"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1368,9 @@
       <c r="BA2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BB2" s="7"/>
+      <c r="BB2" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="8" t="s">
@@ -3928,8 +3930,8 @@
       <c r="BA17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="BB17" s="16" t="s">
-        <v>50</v>
+      <c r="BB17" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="BC17" s="5"/>
       <c r="BD17" s="1" t="s">
@@ -9199,8 +9201,8 @@
       <c r="BA48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="BB48" s="16" t="s">
-        <v>50</v>
+      <c r="BB48" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="BC48" s="5"/>
       <c r="BD48" s="1" t="s">

--- a/Tipps/EM-Toto 2021 (Antworten).xlsx
+++ b/Tipps/EM-Toto 2021 (Antworten).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/em-toto-2021/Tipps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95618439-DF8C-4737-A08A-5051C65F7C0E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{3C176F52-ACE8-4F7B-8790-97D9BE4BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{027EC2D2-3216-4A81-803A-E36928321B9D}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="228">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -604,12 +604,6 @@
     <t>Resultate</t>
   </si>
   <si>
-    <t>:gb-eng: England</t>
-  </si>
-  <si>
-    <t>:it: Italien</t>
-  </si>
-  <si>
     <t>&lt;strike&gt;Aus nach Vorrunde&lt;/strike&gt;</t>
   </si>
   <si>
@@ -619,9 +613,6 @@
     <t>&lt;strike&gt;:pl: Polen&lt;/strike&gt;</t>
   </si>
   <si>
-    <t>Finale</t>
-  </si>
-  <si>
     <t>Wales-Dänemark</t>
   </si>
   <si>
@@ -704,6 +695,15 @@
   </si>
   <si>
     <t>&lt;strike&gt;:es: Spanien&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>Italien-England</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;:gb-eng: England&lt;/strike&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;:it: Italien&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1025,20 +1025,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF49"/>
+  <dimension ref="A1:BG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BB3" sqref="BB3"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="64" width="21.5546875" customWidth="1"/>
+    <col min="5" max="65" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -1151,70 +1151,73 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="AR1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="AT1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>206</v>
-      </c>
       <c r="AW1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="BA1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="BD1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>193</v>
       </c>
@@ -1371,14 +1374,21 @@
       <c r="BB2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="BF2" s="9"/>
+      <c r="BC2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG2" s="9"/>
     </row>
-    <row r="3" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44357.404179537036</v>
       </c>
@@ -1541,16 +1551,21 @@
       <c r="BB3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="BF3" s="5"/>
+      <c r="BC3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BG3" s="5"/>
     </row>
-    <row r="4" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44358.796914710649</v>
       </c>
@@ -1713,15 +1728,20 @@
       <c r="BB4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>221</v>
+      <c r="BC4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44353.726277939815</v>
       </c>
@@ -1884,15 +1904,20 @@
       <c r="BB5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE5" s="3" t="s">
-        <v>212</v>
+      <c r="BC5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44353.7207208912</v>
       </c>
@@ -2055,15 +2080,20 @@
       <c r="BB6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>212</v>
+      <c r="BC6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44351.583451909726</v>
       </c>
@@ -2226,15 +2256,20 @@
       <c r="BB7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BE7" s="3" t="s">
-        <v>212</v>
+      <c r="BC7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44355.651320682868</v>
       </c>
@@ -2397,15 +2432,20 @@
       <c r="BB8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE8" s="3" t="s">
-        <v>212</v>
+      <c r="BC8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF8" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44358.337405185186</v>
       </c>
@@ -2568,15 +2608,20 @@
       <c r="BB9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>212</v>
+      <c r="BC9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44351.750726666665</v>
       </c>
@@ -2739,15 +2784,20 @@
       <c r="BB10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE10" s="3" t="s">
-        <v>221</v>
+      <c r="BC10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44351.650900092594</v>
       </c>
@@ -2907,15 +2957,20 @@
       <c r="BB11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>212</v>
+      <c r="BC11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44357.763658819444</v>
       </c>
@@ -3078,15 +3133,20 @@
       <c r="BB12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE12" s="3" t="s">
-        <v>221</v>
+      <c r="BC12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44354.645761412037</v>
       </c>
@@ -3249,15 +3309,20 @@
       <c r="BB13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE13" s="3" t="s">
-        <v>212</v>
+      <c r="BC13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44351.521401122685</v>
       </c>
@@ -3420,15 +3485,20 @@
       <c r="BB14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>212</v>
+      <c r="BC14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44351.428450497682</v>
       </c>
@@ -3591,15 +3661,20 @@
       <c r="BB15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE15" s="3" t="s">
-        <v>221</v>
+      <c r="BC15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44358.513099976852</v>
       </c>
@@ -3762,15 +3837,20 @@
       <c r="BB16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE16" s="3" t="s">
-        <v>221</v>
+      <c r="BC16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF16" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44349.570228993056</v>
       </c>
@@ -3933,15 +4013,20 @@
       <c r="BB17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>212</v>
+      <c r="BC17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF17" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44346.828506678241</v>
       </c>
@@ -4104,15 +4189,20 @@
       <c r="BB18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE18" s="3" t="s">
-        <v>221</v>
+      <c r="BC18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF18" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44358.45704332176</v>
       </c>
@@ -4275,15 +4365,20 @@
       <c r="BB19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE19" s="3" t="s">
-        <v>196</v>
+      <c r="BC19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF19" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44347.610221863426</v>
       </c>
@@ -4443,15 +4538,20 @@
       <c r="BB20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BE20" s="3" t="s">
-        <v>221</v>
+      <c r="BC20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF20" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44355.617516967592</v>
       </c>
@@ -4614,15 +4714,20 @@
       <c r="BB21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE21" s="3" t="s">
-        <v>212</v>
+      <c r="BC21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44354.614342407411</v>
       </c>
@@ -4782,15 +4887,20 @@
       <c r="BB22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE22" s="3" t="s">
-        <v>212</v>
+      <c r="BC22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF22" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44352.420063831014</v>
       </c>
@@ -4950,15 +5060,20 @@
       <c r="BB23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE23" s="3" t="s">
-        <v>212</v>
+      <c r="BC23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF23" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44343.651783159723</v>
       </c>
@@ -5121,20 +5236,25 @@
       <c r="BB24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE24" s="3" t="s">
-        <v>212</v>
+      <c r="BC24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF24" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44347.660611446758</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>88</v>
@@ -5292,15 +5412,20 @@
       <c r="BB25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE25" s="3" t="s">
-        <v>221</v>
+      <c r="BC25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF25" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44355.483471168976</v>
       </c>
@@ -5463,15 +5588,20 @@
       <c r="BB26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BE26" s="5" t="s">
-        <v>219</v>
+      <c r="BC26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF26" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44351.59185138889</v>
       </c>
@@ -5634,15 +5764,20 @@
       <c r="BB27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE27" s="3" t="s">
-        <v>221</v>
+      <c r="BC27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF27" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44342.911392962968</v>
       </c>
@@ -5805,15 +5940,20 @@
       <c r="BB28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE28" s="3" t="s">
-        <v>212</v>
+      <c r="BC28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF28" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44357.937155127314</v>
       </c>
@@ -5976,15 +6116,20 @@
       <c r="BB29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BE29" s="3" t="s">
-        <v>196</v>
+      <c r="BC29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF29" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44357.463211458336</v>
       </c>
@@ -6147,15 +6292,20 @@
       <c r="BB30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BC30" s="5"/>
-      <c r="BD30" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE30" s="3" t="s">
-        <v>212</v>
+      <c r="BC30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF30" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44344.580743287035</v>
       </c>
@@ -6318,15 +6468,20 @@
       <c r="BB31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE31" s="3" t="s">
-        <v>212</v>
+      <c r="BC31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF31" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44340.455648518517</v>
       </c>
@@ -6486,20 +6641,25 @@
       <c r="BB32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE32" s="3" t="s">
-        <v>212</v>
+      <c r="BC32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF32" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44358.786595127312</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>187</v>
@@ -6657,15 +6817,20 @@
       <c r="BB33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BC33" s="5"/>
+      <c r="BC33" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="BD33" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE33" s="3" t="s">
-        <v>221</v>
+        <v>46</v>
+      </c>
+      <c r="BE33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF33" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44352.407088078704</v>
       </c>
@@ -6828,15 +6993,20 @@
       <c r="BB34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE34" s="3" t="s">
-        <v>196</v>
+      <c r="BC34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF34" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44351.537212974537</v>
       </c>
@@ -6996,15 +7166,20 @@
       <c r="BB35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE35" s="3" t="s">
+      <c r="BC35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE35" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="BF35" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44357.517853460653</v>
       </c>
@@ -7164,15 +7339,20 @@
       <c r="BB36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BC36" s="5"/>
-      <c r="BD36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE36" s="3" t="s">
-        <v>212</v>
+      <c r="BC36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF36" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44357.755932395834</v>
       </c>
@@ -7335,15 +7515,20 @@
       <c r="BB37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC37" s="5"/>
-      <c r="BD37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE37" s="3" t="s">
-        <v>212</v>
+      <c r="BC37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF37" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>44343.428704918981</v>
       </c>
@@ -7506,15 +7691,20 @@
       <c r="BB38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BE38" s="3" t="s">
-        <v>196</v>
+      <c r="BC38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF38" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44349.879789999999</v>
       </c>
@@ -7677,15 +7867,20 @@
       <c r="BB39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE39" s="3" t="s">
-        <v>212</v>
+      <c r="BC39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF39" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44358.541077800925</v>
       </c>
@@ -7848,15 +8043,20 @@
       <c r="BB40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE40" s="3" t="s">
-        <v>221</v>
+      <c r="BC40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF40" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44356.820878449071</v>
       </c>
@@ -8016,15 +8216,20 @@
       <c r="BB41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BE41" s="3" t="s">
-        <v>212</v>
+      <c r="BC41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE41" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF41" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44357.936677835649</v>
       </c>
@@ -8184,15 +8389,20 @@
       <c r="BB42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BC42" s="5"/>
-      <c r="BD42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE42" s="3" t="s">
-        <v>221</v>
+      <c r="BC42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF42" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44345.692452442134</v>
       </c>
@@ -8352,15 +8562,20 @@
       <c r="BB43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE43" s="3" t="s">
-        <v>212</v>
+      <c r="BC43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF43" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44348.492419259259</v>
       </c>
@@ -8523,15 +8738,20 @@
       <c r="BB44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE44" s="3" t="s">
-        <v>221</v>
+      <c r="BC44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF44" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44315.684453900467</v>
       </c>
@@ -8694,15 +8914,20 @@
       <c r="BB45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="BC45" s="2"/>
-      <c r="BD45" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE45" s="3" t="s">
-        <v>212</v>
+      <c r="BC45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF45" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44355.693081180551</v>
       </c>
@@ -8865,15 +9090,20 @@
       <c r="BB46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BE46" s="3" t="s">
-        <v>196</v>
+      <c r="BC46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF46" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44338.962579375002</v>
       </c>
@@ -9033,15 +9263,20 @@
       <c r="BB47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE47" s="3" t="s">
-        <v>212</v>
+      <c r="BC47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF47" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44354.710225416668</v>
       </c>
@@ -9204,15 +9439,20 @@
       <c r="BB48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BE48" s="3" t="s">
-        <v>212</v>
+      <c r="BC48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF48" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44357.582680381944</v>
       </c>
@@ -9372,16 +9612,21 @@
       <c r="BB49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BE49" s="3" t="s">
-        <v>212</v>
+      <c r="BC49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF49" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BE49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BF49">
     <sortCondition ref="C3:C49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
